--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_1_16.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_1_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>752810.4229293211</v>
+        <v>684376.5094811316</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>337002.2430554236</v>
+        <v>337002.2430554234</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10947499.68099519</v>
+        <v>10947499.6809952</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>52.42556848774752</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="C2" t="n">
         <v>241.0142888776591</v>
@@ -667,7 +667,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="E2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="3">
@@ -740,10 +740,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -752,10 +752,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>123.3365499318637</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -794,19 +794,19 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>203.7190067426828</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -837,10 +837,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>39.82778746869526</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -904,61 +904,61 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>62.4162677022923</v>
       </c>
       <c r="F5" t="n">
-        <v>230.8744955960827</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G5" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="I5" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J5" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -1028,7 +1028,7 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
@@ -1040,10 +1040,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
-        <v>35.40726547353844</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="7">
@@ -1077,10 +1077,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>22.0339917726843</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1095,10 +1095,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1141,13 +1141,13 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>62.4162677022923</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1195,13 +1195,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="W8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>200.3360962888296</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1214,19 +1214,19 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>107.1922854952467</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1259,28 +1259,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>50.05769526855297</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1311,13 +1311,13 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>14.83685490770591</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1332,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1369,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>56.31449141872313</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1387,7 +1387,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H11" t="n">
-        <v>311.4936872159403</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1417,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -1426,16 +1426,16 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1530,25 +1530,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>87.1257470790879</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>62.62684798287878</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1584,7 +1584,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1618,16 +1618,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1654,28 +1654,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T14" t="n">
-        <v>159.5874687115985</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>140.52444261343</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1767,25 +1767,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>68.49439899867248</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>52.10844059186253</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1821,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>355.1993340151797</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1852,7 +1852,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -1891,19 +1891,19 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>38.2159678748575</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S17" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1937,13 +1937,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>136.5310119231965</v>
+        <v>136.5310119231968</v>
       </c>
       <c r="H18" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I18" t="n">
-        <v>61.4222199825084</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S18" t="n">
         <v>156.5912426325231</v>
@@ -2004,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>55.84003136202649</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2064,13 +2064,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>155.2114886365811</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2080,22 +2080,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>116.0924447782244</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>377.5040226551522</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2128,25 +2128,25 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S20" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T20" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2177,7 +2177,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H21" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553078</v>
       </c>
       <c r="I21" t="n">
         <v>61.42221998250818</v>
@@ -2238,16 +2238,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>120.4120358099644</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>75.2089105338177</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2292,7 +2292,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2317,19 +2317,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>9.821608734732921</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>104.7111823686471</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>413.784170020795</v>
@@ -2338,7 +2338,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2365,16 +2365,16 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2453,7 +2453,7 @@
         <v>196.8897623984489</v>
       </c>
       <c r="U24" t="n">
-        <v>225.8879277888687</v>
+        <v>225.8879277888686</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -2475,22 +2475,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>59.72683757586869</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>94.63926978364043</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2532,13 +2532,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>355.546756558266</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2608,19 +2608,19 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>150.026950051628</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2645,7 +2645,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>145.0692123933841</v>
       </c>
       <c r="G27" t="n">
         <v>136.5310119231965</v>
@@ -2721,10 +2721,10 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2766,22 +2766,22 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>223.1498336210773</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>89.06613335611772</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2794,19 +2794,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>296.7607853996629</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2839,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -2854,7 +2854,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>221.002178698296</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2949,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>11.00429467105817</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2964,10 +2964,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>95.26725446313678</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T31" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3015,10 +3015,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3040,13 +3040,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3076,13 +3076,13 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3091,13 +3091,13 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>331.8383661153337</v>
       </c>
       <c r="X32" t="n">
-        <v>339.0399185806816</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3128,7 +3128,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I33" t="n">
-        <v>61.4222199825084</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3198,7 +3198,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3243,10 +3243,10 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>94.63926978364051</v>
+        <v>235.5000960026868</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3274,7 +3274,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>8.907786128499756</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3283,10 +3283,10 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>149.1370377385934</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I35" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3313,25 +3313,25 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>49.71123688229341</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S36" t="n">
         <v>156.5912426325231</v>
@@ -3423,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>43.31785343913997</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3480,19 +3480,19 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3505,19 +3505,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>376.1848636439243</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3550,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -3565,7 +3565,7 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>221.002178698296</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3602,7 +3602,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I39" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,22 +3660,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>128.0537032279749</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>56.88196987815829</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3726,10 +3726,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3751,16 +3751,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H41" t="n">
-        <v>165.6080697675181</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3787,28 +3787,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S41" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>342.0194897718993</v>
       </c>
     </row>
     <row r="42">
@@ -3906,13 +3906,13 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>62.95369569505508</v>
       </c>
       <c r="G43" t="n">
-        <v>148.6353323464451</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3963,7 +3963,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3979,10 +3979,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>279.938790180569</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -4024,7 +4024,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4036,13 +4036,13 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>221.0021786982965</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4146,10 +4146,10 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4185,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>190.2713935802968</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>102.575648756399</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C2" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D2" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E2" t="n">
         <v>19.28114311021272</v>
@@ -4354,28 +4354,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S2" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T2" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U2" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V2" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W2" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X2" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y2" t="n">
-        <v>802.5825927271064</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>342.668582052591</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="C3" t="n">
-        <v>168.215552771464</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="D3" t="n">
-        <v>19.28114311021272</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="E3" t="n">
-        <v>19.28114311021272</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="F3" t="n">
-        <v>19.28114311021272</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="G3" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H3" t="n">
         <v>19.28114311021272</v>
@@ -4421,13 +4421,13 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N3" t="n">
-        <v>656.0584510084244</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O3" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P3" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
@@ -4442,19 +4442,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U3" t="n">
-        <v>758.2803810230778</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V3" t="n">
-        <v>758.2803810230778</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W3" t="n">
-        <v>758.2803810230778</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X3" t="n">
-        <v>550.428880817545</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="Y3" t="n">
-        <v>342.668582052591</v>
+        <v>257.2326523711826</v>
       </c>
     </row>
     <row r="4">
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I4" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J4" t="n">
         <v>19.28114311021272</v>
@@ -4521,19 +4521,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>964.0571555106362</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="C5" t="n">
-        <v>964.0571555106362</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="D5" t="n">
-        <v>964.0571555106362</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="E5" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F5" t="n">
-        <v>730.8505943024719</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G5" t="n">
-        <v>487.4018176583718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H5" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4591,28 +4591,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R5" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S5" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T5" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U5" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="V5" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="W5" t="n">
-        <v>964.0571555106362</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="X5" t="n">
-        <v>964.0571555106362</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="Y5" t="n">
-        <v>964.0571555106362</v>
+        <v>569.2254314512334</v>
       </c>
     </row>
     <row r="6">
@@ -4649,22 +4649,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>374.6018090363993</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M6" t="n">
-        <v>613.2059550252818</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N6" t="n">
-        <v>851.8101010141643</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O6" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
@@ -4676,19 +4676,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U6" t="n">
-        <v>533.6469426057913</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V6" t="n">
-        <v>298.4948343740486</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W6" t="n">
-        <v>55.04605772994853</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X6" t="n">
-        <v>19.28114311021272</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y6" t="n">
         <v>19.28114311021272</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C7" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D7" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E7" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F7" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G7" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4743,34 +4743,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V7" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W7" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X7" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y7" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>31.35113235729608</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="C8" t="n">
-        <v>31.35113235729608</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="D8" t="n">
-        <v>31.35113235729608</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="E8" t="n">
-        <v>31.35113235729608</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F8" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G8" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H8" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I8" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4828,28 +4828,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R8" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S8" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T8" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U8" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="V8" t="n">
-        <v>720.6083788665362</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="W8" t="n">
-        <v>477.1596022224361</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="X8" t="n">
-        <v>274.7999090013961</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="Y8" t="n">
-        <v>31.35113235729608</v>
+        <v>569.2254314512334</v>
       </c>
     </row>
     <row r="9">
@@ -4859,19 +4859,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>461.2466632505798</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C9" t="n">
-        <v>286.7936339694528</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D9" t="n">
-        <v>286.7936339694528</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E9" t="n">
-        <v>127.5561789639973</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F9" t="n">
-        <v>127.5561789639973</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G9" t="n">
         <v>19.28114311021272</v>
@@ -4895,40 +4895,40 @@
         <v>487.8483949674443</v>
       </c>
       <c r="N9" t="n">
-        <v>487.8483949674443</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O9" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P9" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>461.2466632505798</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="V9" t="n">
-        <v>461.2466632505798</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W9" t="n">
-        <v>461.2466632505798</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X9" t="n">
-        <v>461.2466632505798</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y9" t="n">
-        <v>461.2466632505798</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -4980,34 +4980,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2310.549250954101</v>
+        <v>1683.829970582157</v>
       </c>
       <c r="C11" t="n">
-        <v>1941.586734013689</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D11" t="n">
-        <v>1583.321035406939</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E11" t="n">
-        <v>1197.532782808694</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F11" t="n">
-        <v>786.546878019087</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G11" t="n">
-        <v>368.5830699172739</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H11" t="n">
         <v>53.94298182036446</v>
@@ -5065,28 +5065,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R11" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S11" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T11" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U11" t="n">
-        <v>2697.149091018223</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V11" t="n">
-        <v>2697.149091018223</v>
+        <v>2057.295728843237</v>
       </c>
       <c r="W11" t="n">
-        <v>2697.149091018223</v>
+        <v>2057.295728843237</v>
       </c>
       <c r="X11" t="n">
-        <v>2697.149091018223</v>
+        <v>1683.829970582157</v>
       </c>
       <c r="Y11" t="n">
-        <v>2697.149091018223</v>
+        <v>1683.829970582157</v>
       </c>
     </row>
     <row r="12">
@@ -5123,10 +5123,10 @@
         <v>53.94298182036446</v>
       </c>
       <c r="K12" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L12" t="n">
-        <v>670.8219208598713</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M12" t="n">
         <v>1194.968834417902</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>728.1289842064343</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="C13" t="n">
-        <v>559.1928012785274</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="D13" t="n">
-        <v>559.1928012785274</v>
+        <v>288.8387344486666</v>
       </c>
       <c r="E13" t="n">
-        <v>411.2797076961343</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F13" t="n">
-        <v>411.2797076961343</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G13" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H13" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I13" t="n">
         <v>53.94298182036446</v>
@@ -5205,46 +5205,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L13" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M13" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N13" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O13" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P13" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q13" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R13" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S13" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T13" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U13" t="n">
-        <v>728.1289842064343</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V13" t="n">
-        <v>728.1289842064343</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="W13" t="n">
-        <v>728.1289842064343</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="X13" t="n">
-        <v>728.1289842064343</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="Y13" t="n">
-        <v>728.1289842064343</v>
+        <v>438.9553738610024</v>
       </c>
     </row>
     <row r="14">
@@ -5254,37 +5254,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2090.781606227855</v>
+        <v>781.1711973675267</v>
       </c>
       <c r="C14" t="n">
-        <v>1721.819089287443</v>
+        <v>412.2086804271149</v>
       </c>
       <c r="D14" t="n">
-        <v>1363.553390680693</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E14" t="n">
-        <v>1363.553390680693</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F14" t="n">
-        <v>952.5674858910851</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G14" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H14" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I14" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J14" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K14" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M14" t="n">
         <v>1362.238747280443</v>
@@ -5305,25 +5305,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S14" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T14" t="n">
-        <v>2480.920938203667</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U14" t="n">
-        <v>2480.920938203667</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V14" t="n">
-        <v>2480.920938203667</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W14" t="n">
-        <v>2480.920938203667</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X14" t="n">
-        <v>2480.920938203667</v>
+        <v>1167.771037431648</v>
       </c>
       <c r="Y14" t="n">
-        <v>2090.781606227855</v>
+        <v>1167.771037431648</v>
       </c>
     </row>
     <row r="15">
@@ -5333,49 +5333,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C15" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D15" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E15" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F15" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G15" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H15" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I15" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J15" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K15" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L15" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M15" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N15" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O15" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P15" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q15" t="n">
         <v>2697.149091018222</v>
@@ -5396,10 +5396,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W15" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X15" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y15" t="n">
         <v>1156.713312237151</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="C16" t="n">
-        <v>728.1289842064342</v>
+        <v>270.0191909330955</v>
       </c>
       <c r="D16" t="n">
-        <v>728.1289842064342</v>
+        <v>270.0191909330955</v>
       </c>
       <c r="E16" t="n">
-        <v>580.2158906240411</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F16" t="n">
-        <v>433.3259431261307</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G16" t="n">
-        <v>264.3261428644631</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H16" t="n">
-        <v>106.5777702969933</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I16" t="n">
         <v>53.94298182036445</v>
@@ -5442,46 +5442,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L16" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M16" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N16" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O16" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P16" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q16" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R16" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S16" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T16" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U16" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V16" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="W16" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="X16" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="Y16" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610024</v>
       </c>
     </row>
     <row r="17">
@@ -5491,13 +5491,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>781.1711973675267</v>
+        <v>1166.959449965771</v>
       </c>
       <c r="C17" t="n">
-        <v>412.208680427115</v>
+        <v>797.9969330253592</v>
       </c>
       <c r="D17" t="n">
-        <v>53.94298182036446</v>
+        <v>439.7312344186087</v>
       </c>
       <c r="E17" t="n">
         <v>53.94298182036446</v>
@@ -5515,13 +5515,13 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J17" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K17" t="n">
-        <v>463.9616490733127</v>
+        <v>463.961649073313</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224075</v>
+        <v>881.282427122408</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
@@ -5539,28 +5539,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R17" t="n">
-        <v>2658.547103265842</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S17" t="n">
-        <v>2482.369615580012</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T17" t="n">
-        <v>2482.369615580012</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U17" t="n">
-        <v>2228.607830218103</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V17" t="n">
-        <v>1897.544942874532</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W17" t="n">
-        <v>1544.776287604418</v>
+        <v>2289.351746278602</v>
       </c>
       <c r="X17" t="n">
-        <v>1171.310529343338</v>
+        <v>1915.885988017522</v>
       </c>
       <c r="Y17" t="n">
-        <v>781.1711973675267</v>
+        <v>1525.74665604171</v>
       </c>
     </row>
     <row r="18">
@@ -5585,34 +5585,34 @@
         <v>359.3385232961347</v>
       </c>
       <c r="G18" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H18" t="n">
-        <v>115.9856282673426</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I18" t="n">
         <v>53.94298182036446</v>
       </c>
       <c r="J18" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K18" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L18" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598709</v>
       </c>
       <c r="M18" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N18" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O18" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P18" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q18" t="n">
         <v>2697.149091018223</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>53.94298182036446</v>
+        <v>279.3468541648871</v>
       </c>
       <c r="C19" t="n">
-        <v>53.94298182036446</v>
+        <v>222.942782082032</v>
       </c>
       <c r="D19" t="n">
-        <v>53.94298182036446</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E19" t="n">
-        <v>53.94298182036446</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F19" t="n">
-        <v>53.94298182036446</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G19" t="n">
         <v>53.94298182036446</v>
@@ -5682,7 +5682,7 @@
         <v>237.8190324477911</v>
       </c>
       <c r="M19" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N19" t="n">
         <v>529.6040388502502</v>
@@ -5691,34 +5691,34 @@
         <v>649.2617893594903</v>
       </c>
       <c r="P19" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q19" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="R19" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="S19" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="T19" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="U19" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="V19" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="W19" t="n">
-        <v>438.7118141694738</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="X19" t="n">
-        <v>210.7222632714565</v>
+        <v>500.1394333084172</v>
       </c>
       <c r="Y19" t="n">
-        <v>53.94298182036446</v>
+        <v>279.3468541648871</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1190.010945960184</v>
+        <v>1995.909162857192</v>
       </c>
       <c r="C20" t="n">
-        <v>821.0484290197726</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D20" t="n">
-        <v>821.0484290197726</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E20" t="n">
-        <v>435.2601764215283</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F20" t="n">
-        <v>435.2601764215283</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G20" t="n">
         <v>53.94298182036446</v>
@@ -5755,10 +5755,10 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K20" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733131</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
@@ -5782,22 +5782,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T20" t="n">
-        <v>2247.308246834949</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U20" t="n">
-        <v>2247.308246834949</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V20" t="n">
-        <v>1916.245359491378</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W20" t="n">
-        <v>1563.476704221264</v>
+        <v>2113.174258592772</v>
       </c>
       <c r="X20" t="n">
-        <v>1190.010945960184</v>
+        <v>2113.174258592772</v>
       </c>
       <c r="Y20" t="n">
-        <v>1190.010945960184</v>
+        <v>2113.174258592772</v>
       </c>
     </row>
     <row r="21">
@@ -5807,22 +5807,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C21" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D21" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E21" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F21" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G21" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H21" t="n">
         <v>115.9856282673424</v>
@@ -5834,22 +5834,22 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K21" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L21" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M21" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N21" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O21" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P21" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q21" t="n">
         <v>2697.149091018223</v>
@@ -5876,7 +5876,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y21" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2294.708047044453</v>
+        <v>280.0282177315059</v>
       </c>
       <c r="C22" t="n">
-        <v>2173.079728044489</v>
+        <v>280.0282177315059</v>
       </c>
       <c r="D22" t="n">
-        <v>2022.963088632153</v>
+        <v>129.9115783191702</v>
       </c>
       <c r="E22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K22" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L22" t="n">
-        <v>2206.83913925958</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M22" t="n">
-        <v>2351.73700797761</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N22" t="n">
-        <v>2498.624145662039</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O22" t="n">
-        <v>2618.281896171279</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P22" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q22" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R22" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S22" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T22" t="n">
-        <v>2697.149091018223</v>
+        <v>500.8207968750361</v>
       </c>
       <c r="U22" t="n">
-        <v>2697.149091018223</v>
+        <v>500.8207968750361</v>
       </c>
       <c r="V22" t="n">
-        <v>2697.149091018223</v>
+        <v>500.8207968750361</v>
       </c>
       <c r="W22" t="n">
-        <v>2697.149091018223</v>
+        <v>500.8207968750361</v>
       </c>
       <c r="X22" t="n">
-        <v>2697.149091018223</v>
+        <v>500.8207968750361</v>
       </c>
       <c r="Y22" t="n">
-        <v>2476.356511874693</v>
+        <v>280.0282177315059</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1485.892406545185</v>
+        <v>1236.578376364604</v>
       </c>
       <c r="C23" t="n">
-        <v>1116.929889604774</v>
+        <v>867.6158594241924</v>
       </c>
       <c r="D23" t="n">
-        <v>1116.929889604774</v>
+        <v>857.6950425204218</v>
       </c>
       <c r="E23" t="n">
-        <v>731.1416370065294</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="F23" t="n">
-        <v>625.3727659270879</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G23" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H23" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I23" t="n">
         <v>53.94298182036446</v>
@@ -5992,10 +5992,10 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K23" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
@@ -6007,34 +6007,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P23" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q23" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R23" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S23" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T23" t="n">
-        <v>2423.485734520779</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U23" t="n">
-        <v>2169.72394915887</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V23" t="n">
-        <v>1838.661061815299</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W23" t="n">
-        <v>1485.892406545185</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X23" t="n">
-        <v>1485.892406545185</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="Y23" t="n">
-        <v>1485.892406545185</v>
+        <v>1623.178216428726</v>
       </c>
     </row>
     <row r="24">
@@ -6068,16 +6068,16 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J24" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K24" t="n">
-        <v>266.2060027641992</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L24" t="n">
-        <v>670.8219208598711</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M24" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N24" t="n">
         <v>1748.695370517453</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>667.7988452409105</v>
+        <v>149.5382038240417</v>
       </c>
       <c r="C25" t="n">
-        <v>498.8626623130036</v>
+        <v>149.5382038240417</v>
       </c>
       <c r="D25" t="n">
-        <v>348.7460229006679</v>
+        <v>149.5382038240417</v>
       </c>
       <c r="E25" t="n">
-        <v>200.8329293182748</v>
+        <v>149.5382038240417</v>
       </c>
       <c r="F25" t="n">
-        <v>53.94298182036446</v>
+        <v>149.5382038240417</v>
       </c>
       <c r="G25" t="n">
         <v>53.94298182036446</v>
@@ -6153,46 +6153,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L25" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M25" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N25" t="n">
-        <v>529.6040388502502</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O25" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P25" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q25" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R25" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S25" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T25" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U25" t="n">
-        <v>728.1289842064344</v>
+        <v>438.9553738610023</v>
       </c>
       <c r="V25" t="n">
-        <v>728.1289842064344</v>
+        <v>438.9553738610023</v>
       </c>
       <c r="W25" t="n">
-        <v>728.1289842064344</v>
+        <v>149.5382038240417</v>
       </c>
       <c r="X25" t="n">
-        <v>728.1289842064344</v>
+        <v>149.5382038240417</v>
       </c>
       <c r="Y25" t="n">
-        <v>728.1289842064344</v>
+        <v>149.5382038240417</v>
       </c>
     </row>
     <row r="26">
@@ -6202,31 +6202,31 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1937.083492693021</v>
+        <v>1995.909162857192</v>
       </c>
       <c r="C26" t="n">
-        <v>1568.120975752609</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D26" t="n">
-        <v>1209.855277145859</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E26" t="n">
-        <v>824.0670245476144</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F26" t="n">
-        <v>413.0811197580069</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G26" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H26" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I26" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J26" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K26" t="n">
         <v>463.9616490733127</v>
@@ -6244,34 +6244,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P26" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q26" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R26" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S26" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T26" t="n">
-        <v>2697.149091018222</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="U26" t="n">
-        <v>2697.149091018222</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="V26" t="n">
-        <v>2697.149091018222</v>
+        <v>2147.451536646715</v>
       </c>
       <c r="W26" t="n">
-        <v>2697.149091018222</v>
+        <v>2147.451536646715</v>
       </c>
       <c r="X26" t="n">
-        <v>2323.683332757143</v>
+        <v>1995.909162857192</v>
       </c>
       <c r="Y26" t="n">
-        <v>2323.683332757143</v>
+        <v>1995.909162857192</v>
       </c>
     </row>
     <row r="27">
@@ -6281,67 +6281,67 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C27" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D27" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E27" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F27" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G27" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H27" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I27" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J27" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K27" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L27" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M27" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N27" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O27" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P27" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q27" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R27" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S27" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T27" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U27" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V27" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W27" t="n">
         <v>1572.325111207638</v>
@@ -6350,7 +6350,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y27" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="C28" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="D28" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E28" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K28" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L28" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M28" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N28" t="n">
-        <v>529.6040388502502</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O28" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P28" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q28" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R28" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S28" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T28" t="n">
-        <v>502.7251118619119</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U28" t="n">
-        <v>502.7251118619119</v>
+        <v>638.1631929376285</v>
       </c>
       <c r="V28" t="n">
-        <v>502.7251118619119</v>
+        <v>638.1631929376285</v>
       </c>
       <c r="W28" t="n">
-        <v>502.7251118619119</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="X28" t="n">
-        <v>274.7355609638946</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="Y28" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
     </row>
     <row r="29">
@@ -6439,52 +6439,52 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1491.915471247703</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="C29" t="n">
-        <v>1122.952954307291</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D29" t="n">
-        <v>764.6872557005406</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E29" t="n">
-        <v>764.6872557005406</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F29" t="n">
-        <v>353.7013509109331</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G29" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H29" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I29" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J29" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N29" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O29" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P29" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q29" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R29" t="n">
         <v>2642.120401548716</v>
@@ -6502,13 +6502,13 @@
         <v>2642.120401548716</v>
       </c>
       <c r="W29" t="n">
-        <v>2642.120401548716</v>
+        <v>2418.885877611043</v>
       </c>
       <c r="X29" t="n">
-        <v>2268.654643287636</v>
+        <v>2045.420119349963</v>
       </c>
       <c r="Y29" t="n">
-        <v>1878.515311311824</v>
+        <v>1655.280787374151</v>
       </c>
     </row>
     <row r="30">
@@ -6518,19 +6518,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C30" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D30" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E30" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F30" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G30" t="n">
         <v>221.4284102424006</v>
@@ -6539,46 +6539,46 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I30" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J30" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K30" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L30" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M30" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N30" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O30" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P30" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q30" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R30" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S30" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T30" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U30" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V30" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W30" t="n">
         <v>1572.325111207638</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>319.1723320447965</v>
+        <v>65.05843098304948</v>
       </c>
       <c r="C31" t="n">
-        <v>319.1723320447965</v>
+        <v>65.05843098304948</v>
       </c>
       <c r="D31" t="n">
-        <v>319.1723320447965</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E31" t="n">
-        <v>319.1723320447965</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F31" t="n">
-        <v>319.1723320447965</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G31" t="n">
-        <v>150.1725317831289</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H31" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I31" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J31" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K31" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L31" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M31" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N31" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O31" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P31" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q31" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R31" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S31" t="n">
-        <v>728.1289842064344</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T31" t="n">
-        <v>500.8207968750362</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U31" t="n">
-        <v>500.8207968750362</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="V31" t="n">
-        <v>500.8207968750362</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="W31" t="n">
-        <v>500.8207968750362</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="X31" t="n">
-        <v>500.8207968750362</v>
+        <v>285.8510101265796</v>
       </c>
       <c r="Y31" t="n">
-        <v>500.8207968750362</v>
+        <v>65.05843098304948</v>
       </c>
     </row>
     <row r="32">
@@ -6676,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1577.945354755379</v>
+        <v>1912.117978031581</v>
       </c>
       <c r="C32" t="n">
-        <v>1208.982837814967</v>
+        <v>1543.155461091169</v>
       </c>
       <c r="D32" t="n">
-        <v>850.7171392082163</v>
+        <v>1184.889762484419</v>
       </c>
       <c r="E32" t="n">
-        <v>464.928886609972</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="F32" t="n">
-        <v>53.94298182036446</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G32" t="n">
-        <v>53.94298182036446</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H32" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I32" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J32" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K32" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L32" t="n">
         <v>881.2824271224075</v>
@@ -6718,34 +6718,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P32" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q32" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R32" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S32" t="n">
-        <v>2697.149091018223</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T32" t="n">
-        <v>2697.149091018223</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U32" t="n">
-        <v>2697.149091018223</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V32" t="n">
-        <v>2697.149091018223</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W32" t="n">
-        <v>2697.149091018223</v>
+        <v>1912.117978031581</v>
       </c>
       <c r="X32" t="n">
-        <v>2354.684526795312</v>
+        <v>1912.117978031581</v>
       </c>
       <c r="Y32" t="n">
-        <v>1964.5451948195</v>
+        <v>1912.117978031581</v>
       </c>
     </row>
     <row r="33">
@@ -6755,49 +6755,49 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.4979752170834</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C33" t="n">
-        <v>814.0449459359564</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E33" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F33" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G33" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H33" t="n">
-        <v>115.9856282673426</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I33" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J33" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K33" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L33" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M33" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N33" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O33" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P33" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q33" t="n">
         <v>2697.149091018223</v>
@@ -6824,7 +6824,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y33" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>53.94298182036446</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="C34" t="n">
-        <v>53.94298182036446</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D34" t="n">
-        <v>53.94298182036446</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E34" t="n">
-        <v>53.94298182036446</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F34" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G34" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H34" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I34" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J34" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K34" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L34" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M34" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N34" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O34" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P34" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q34" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R34" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S34" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T34" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U34" t="n">
-        <v>438.9553738610024</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V34" t="n">
-        <v>343.3601518573251</v>
+        <v>490.2500993552354</v>
       </c>
       <c r="W34" t="n">
-        <v>53.94298182036446</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="X34" t="n">
-        <v>53.94298182036446</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="Y34" t="n">
-        <v>53.94298182036446</v>
+        <v>200.8329293182748</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1882.054803223514</v>
+        <v>1528.349585887293</v>
       </c>
       <c r="C35" t="n">
-        <v>1513.092286283103</v>
+        <v>1159.387068946881</v>
       </c>
       <c r="D35" t="n">
-        <v>1154.826587676352</v>
+        <v>801.1213703401306</v>
       </c>
       <c r="E35" t="n">
-        <v>769.038335078108</v>
+        <v>792.1236065739693</v>
       </c>
       <c r="F35" t="n">
-        <v>358.0524302885005</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="G35" t="n">
-        <v>358.0524302885005</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H35" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I35" t="n">
         <v>53.94298182036446</v>
@@ -6943,7 +6943,7 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
@@ -6964,25 +6964,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S35" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T35" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U35" t="n">
-        <v>2642.120401548716</v>
+        <v>2212.181128500978</v>
       </c>
       <c r="V35" t="n">
-        <v>2642.120401548716</v>
+        <v>1881.118241157407</v>
       </c>
       <c r="W35" t="n">
-        <v>2642.120401548716</v>
+        <v>1528.349585887293</v>
       </c>
       <c r="X35" t="n">
-        <v>2268.654643287636</v>
+        <v>1528.349585887293</v>
       </c>
       <c r="Y35" t="n">
-        <v>2268.654643287636</v>
+        <v>1528.349585887293</v>
       </c>
     </row>
     <row r="36">
@@ -7016,25 +7016,25 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J36" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K36" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L36" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M36" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N36" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O36" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P36" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q36" t="n">
         <v>2697.149091018223</v>
@@ -7071,10 +7071,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.69838933464726</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C37" t="n">
-        <v>97.69838933464726</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D37" t="n">
         <v>53.94298182036446</v>
@@ -7101,46 +7101,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L37" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M37" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N37" t="n">
-        <v>529.6040388502502</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O37" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P37" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q37" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R37" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S37" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T37" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U37" t="n">
-        <v>728.1289842064344</v>
+        <v>598.044640063212</v>
       </c>
       <c r="V37" t="n">
-        <v>728.1289842064344</v>
+        <v>343.3601518573251</v>
       </c>
       <c r="W37" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X37" t="n">
-        <v>500.1394333084171</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y37" t="n">
-        <v>279.346854164887</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="38">
@@ -7150,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1546.94416071721</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="C38" t="n">
-        <v>1177.981643776798</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D38" t="n">
-        <v>819.7159451700475</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E38" t="n">
-        <v>433.9276925718032</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F38" t="n">
-        <v>433.9276925718032</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G38" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H38" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I38" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J38" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L38" t="n">
         <v>881.2824271224075</v>
@@ -7192,34 +7192,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P38" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q38" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R38" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S38" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T38" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U38" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V38" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W38" t="n">
-        <v>2697.149091018223</v>
+        <v>2418.885877611043</v>
       </c>
       <c r="X38" t="n">
-        <v>2323.683332757143</v>
+        <v>2045.420119349963</v>
       </c>
       <c r="Y38" t="n">
-        <v>1933.544000781331</v>
+        <v>1655.280787374151</v>
       </c>
     </row>
     <row r="39">
@@ -7229,67 +7229,67 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C39" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D39" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E39" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F39" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G39" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H39" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I39" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J39" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K39" t="n">
-        <v>266.2060027641992</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L39" t="n">
-        <v>670.8219208598711</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M39" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N39" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O39" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P39" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q39" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R39" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S39" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T39" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U39" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V39" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W39" t="n">
         <v>1572.325111207638</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>53.94298182036446</v>
+        <v>500.1394333084169</v>
       </c>
       <c r="C40" t="n">
-        <v>53.94298182036446</v>
+        <v>331.20325038051</v>
       </c>
       <c r="D40" t="n">
-        <v>53.94298182036446</v>
+        <v>331.20325038051</v>
       </c>
       <c r="E40" t="n">
-        <v>53.94298182036446</v>
+        <v>183.2901567981169</v>
       </c>
       <c r="F40" t="n">
-        <v>53.94298182036446</v>
+        <v>183.2901567981169</v>
       </c>
       <c r="G40" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H40" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I40" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J40" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K40" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L40" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M40" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N40" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O40" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P40" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q40" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R40" t="n">
-        <v>670.6724489759715</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S40" t="n">
-        <v>456.3840257941342</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T40" t="n">
-        <v>456.3840257941342</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U40" t="n">
-        <v>456.3840257941342</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V40" t="n">
-        <v>456.3840257941342</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W40" t="n">
-        <v>456.3840257941342</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X40" t="n">
-        <v>456.3840257941342</v>
+        <v>500.1394333084169</v>
       </c>
       <c r="Y40" t="n">
-        <v>235.5914466506042</v>
+        <v>500.1394333084169</v>
       </c>
     </row>
     <row r="41">
@@ -7387,37 +7387,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1017.998017761265</v>
+        <v>1338.355738489329</v>
       </c>
       <c r="C41" t="n">
-        <v>1017.998017761265</v>
+        <v>1338.355738489329</v>
       </c>
       <c r="D41" t="n">
-        <v>1017.998017761265</v>
+        <v>1338.355738489329</v>
       </c>
       <c r="E41" t="n">
-        <v>632.2097651630206</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="F41" t="n">
-        <v>221.2238603734131</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G41" t="n">
-        <v>221.2238603734131</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H41" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I41" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J41" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K41" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
@@ -7429,34 +7429,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P41" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q41" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R41" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S41" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T41" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U41" t="n">
-        <v>2520.971603332393</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V41" t="n">
-        <v>2520.971603332393</v>
+        <v>2057.295728843237</v>
       </c>
       <c r="W41" t="n">
-        <v>2168.202948062278</v>
+        <v>2057.295728843237</v>
       </c>
       <c r="X41" t="n">
-        <v>1794.737189801198</v>
+        <v>1683.829970582157</v>
       </c>
       <c r="Y41" t="n">
-        <v>1404.597857825387</v>
+        <v>1338.355738489329</v>
       </c>
     </row>
     <row r="42">
@@ -7466,73 +7466,73 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C42" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D42" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E42" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F42" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G42" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H42" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I42" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J42" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K42" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L42" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M42" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N42" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O42" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P42" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q42" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R42" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S42" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T42" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U42" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V42" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W42" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X42" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y42" t="n">
         <v>1156.713312237151</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>351.9927747426011</v>
+        <v>286.5323736931988</v>
       </c>
       <c r="C43" t="n">
-        <v>351.9927747426011</v>
+        <v>286.5323736931988</v>
       </c>
       <c r="D43" t="n">
-        <v>351.9927747426011</v>
+        <v>286.5323736931988</v>
       </c>
       <c r="E43" t="n">
-        <v>204.079681160208</v>
+        <v>286.5323736931988</v>
       </c>
       <c r="F43" t="n">
-        <v>204.079681160208</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K43" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L43" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M43" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N43" t="n">
-        <v>529.6040388502502</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O43" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P43" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q43" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R43" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S43" t="n">
-        <v>579.9823256406185</v>
+        <v>513.840561024597</v>
       </c>
       <c r="T43" t="n">
-        <v>579.9823256406185</v>
+        <v>286.5323736931988</v>
       </c>
       <c r="U43" t="n">
-        <v>579.9823256406185</v>
+        <v>286.5323736931988</v>
       </c>
       <c r="V43" t="n">
-        <v>579.9823256406185</v>
+        <v>286.5323736931988</v>
       </c>
       <c r="W43" t="n">
-        <v>579.9823256406185</v>
+        <v>286.5323736931988</v>
       </c>
       <c r="X43" t="n">
-        <v>351.9927747426011</v>
+        <v>286.5323736931988</v>
       </c>
       <c r="Y43" t="n">
-        <v>351.9927747426011</v>
+        <v>286.5323736931988</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1920.409918978288</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="C44" t="n">
-        <v>1551.447402037877</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D44" t="n">
-        <v>1268.680947310029</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E44" t="n">
-        <v>882.8926947117851</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F44" t="n">
         <v>471.9067899221776</v>
       </c>
       <c r="G44" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H44" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I44" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J44" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K44" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M44" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N44" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O44" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P44" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q44" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R44" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S44" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T44" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U44" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V44" t="n">
-        <v>2697.149091018222</v>
+        <v>2418.885877611043</v>
       </c>
       <c r="W44" t="n">
-        <v>2697.149091018222</v>
+        <v>2418.885877611043</v>
       </c>
       <c r="X44" t="n">
-        <v>2697.149091018222</v>
+        <v>2045.420119349963</v>
       </c>
       <c r="Y44" t="n">
-        <v>2307.00975904241</v>
+        <v>1655.280787374151</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>988.4979752170821</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C45" t="n">
-        <v>814.0449459359551</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D45" t="n">
-        <v>665.1105362747037</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E45" t="n">
-        <v>505.8730812692481</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F45" t="n">
-        <v>359.3385232961333</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G45" t="n">
-        <v>221.4284102423999</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H45" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I45" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J45" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K45" t="n">
-        <v>266.2060027641985</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L45" t="n">
-        <v>670.8219208598704</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M45" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N45" t="n">
-        <v>1748.695370517452</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O45" t="n">
-        <v>2188.831293537796</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P45" t="n">
-        <v>2525.076107152625</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q45" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R45" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S45" t="n">
-        <v>2488.762748073962</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T45" t="n">
-        <v>2289.884200196741</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U45" t="n">
-        <v>2061.714576167581</v>
+        <v>2061.714576167582</v>
       </c>
       <c r="V45" t="n">
-        <v>1826.562467935838</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W45" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X45" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y45" t="n">
-        <v>1156.71331223715</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="46">
@@ -7782,31 +7782,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>53.94298182036444</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="C46" t="n">
-        <v>53.94298182036444</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="D46" t="n">
-        <v>53.94298182036444</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="E46" t="n">
-        <v>53.94298182036444</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F46" t="n">
-        <v>53.94298182036444</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G46" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H46" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I46" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J46" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K46" t="n">
         <v>110.2451748866326</v>
@@ -7815,43 +7815,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M46" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N46" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O46" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P46" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q46" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R46" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S46" t="n">
-        <v>535.9356573576496</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T46" t="n">
-        <v>308.6274700262513</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U46" t="n">
-        <v>308.6274700262513</v>
+        <v>624.5172177858293</v>
       </c>
       <c r="V46" t="n">
-        <v>53.94298182036444</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="W46" t="n">
-        <v>53.94298182036444</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="X46" t="n">
-        <v>53.94298182036444</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="Y46" t="n">
-        <v>53.94298182036444</v>
+        <v>369.8327295799424</v>
       </c>
     </row>
   </sheetData>
@@ -8069,16 +8069,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>174.6270615612551</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>383.6105333221035</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P3" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8297,10 +8297,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>369.8307175917693</v>
       </c>
       <c r="M6" t="n">
         <v>383.1483227996774</v>
@@ -8309,13 +8309,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>185.8815939223662</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8543,16 +8543,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>369.031319612638</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,13 +8768,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719081</v>
       </c>
       <c r="L12" t="n">
-        <v>327.4218609627889</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
         <v>465.7050637499999</v>
@@ -9005,10 +9005,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719077</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9026,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9242,10 +9242,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270189</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9263,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>90.64146763747119</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9482,7 +9482,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142014</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9500,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>90.64146763747119</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9716,10 +9716,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>221.0467526719081</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9728,7 +9728,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -9956,7 +9956,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142014</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9971,7 +9971,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>199.0269485415591</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10190,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10202,7 +10202,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10211,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10427,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10445,10 +10445,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>199.0269485415595</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10664,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10676,7 +10676,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10685,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10901,10 +10901,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K39" t="n">
-        <v>221.0467526719081</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10922,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11138,10 +11138,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11156,7 +11156,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>199.0269485415591</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11378,7 +11378,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>145.0294169142005</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -11387,7 +11387,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>330.3082731757331</v>
+        <v>180.4391552345834</v>
       </c>
       <c r="C2" t="n">
         <v>124.2586028933485</v>
@@ -22555,7 +22555,7 @@
         <v>113.6687527430239</v>
       </c>
       <c r="E2" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -22594,7 +22594,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
@@ -22615,7 +22615,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="3">
@@ -22628,10 +22628,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -22640,10 +22640,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>14.00696723134696</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>89.39663285141508</v>
@@ -22682,19 +22682,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>22.22237533829198</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22725,10 +22725,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>115.622687458563</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
         <v>22.26949182588285</v>
@@ -22761,7 +22761,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -22792,22 +22792,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>319.5141023699695</v>
       </c>
       <c r="F5" t="n">
-        <v>176.0015501456288</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G5" t="n">
         <v>174.288448637476</v>
       </c>
       <c r="H5" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22831,7 +22831,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
@@ -22846,7 +22846,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -22916,7 +22916,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -22928,10 +22928,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
-        <v>170.365719729939</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="7">
@@ -22965,10 +22965,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>71.32518834398849</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22983,10 +22983,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
         <v>177.2933913771695</v>
@@ -23004,7 +23004,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -23029,13 +23029,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>319.5141023699695</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G8" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
@@ -23044,7 +23044,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23068,7 +23068,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
@@ -23083,13 +23083,13 @@
         <v>86.73796959247585</v>
       </c>
       <c r="W8" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>169.3950043896394</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23102,19 +23102,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>30.15123166796391</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
         <v>112.2354442364965</v>
@@ -23147,28 +23147,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>175.8836868124218</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -23199,13 +23199,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>140.6136200195524</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23220,7 +23220,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>86.16204325169439</v>
@@ -23238,7 +23238,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -23257,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>308.9584003522844</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23275,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>12.42908554841688</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I11" t="n">
         <v>151.9313162448613</v>
@@ -23305,7 +23305,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>174.4157128089715</v>
@@ -23314,16 +23314,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23418,28 +23418,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>59.30821556748127</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>104.6829542761721</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J13" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R13" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S13" t="n">
         <v>212.1455389500189</v>
@@ -23472,7 +23472,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23506,16 +23506,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>56.86085164605927</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>229.206658065039</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23655,28 +23655,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>77.93956364789669</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I16" t="n">
-        <v>82.85718120047571</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J16" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R16" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S16" t="n">
         <v>212.1455389500189</v>
@@ -23709,7 +23709,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>27.53450764830086</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23740,7 +23740,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -23752,7 +23752,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I17" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,19 +23779,19 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>16.26243469995419</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T17" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23892,7 +23892,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>111.4067897366014</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23904,7 +23904,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>156.1708888417951</v>
@@ -23913,7 +23913,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J19" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,7 +23934,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R19" t="n">
         <v>146.6651919801578</v>
@@ -23952,13 +23952,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>63.3731647155137</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23968,22 +23968,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>266.6413968852562</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>36.28014736564279</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>323.9227727643571</v>
@@ -24022,19 +24022,19 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U20" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24126,16 +24126,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>46.83478528866348</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>71.22505211275147</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24150,7 +24150,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J22" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R22" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S22" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T22" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2818742419777</v>
@@ -24205,19 +24205,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>344.86143288595</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>302.1648633730643</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -24226,7 +24226,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24253,16 +24253,16 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S23" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24274,7 +24274,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24363,22 +24363,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>120.1051426060686</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>167.3098022590509</v>
+        <v>72.67053247541048</v>
       </c>
       <c r="H25" t="n">
         <v>156.1708888417951</v>
@@ -24387,7 +24387,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J25" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R25" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S25" t="n">
         <v>212.1455389500189</v>
@@ -24420,13 +24420,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24457,7 +24457,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>58.23741346252899</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>323.9227727643571</v>
@@ -24490,25 +24490,25 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S26" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T26" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>219.704150626841</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24609,10 +24609,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>167.3098022590509</v>
@@ -24624,7 +24624,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J28" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24648,28 +24648,28 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R28" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S28" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T28" t="n">
-        <v>1.885271837006968</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2818742419777</v>
+        <v>197.21574088586</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24682,19 +24682,19 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>117.0233846211321</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>323.9227727643571</v>
@@ -24742,7 +24742,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>128.238790019117</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24837,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>137.6111783471542</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24852,16 +24852,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H31" t="n">
-        <v>60.90363437865837</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I31" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J31" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R31" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S31" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U31" t="n">
         <v>286.2818742419777</v>
@@ -24903,10 +24903,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -24928,13 +24928,13 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>151.9313162448613</v>
@@ -24964,13 +24964,13 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>251.2241675082893</v>
@@ -24979,13 +24979,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>17.4026026020793</v>
       </c>
       <c r="X32" t="n">
-        <v>30.69118209778748</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25086,7 +25086,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>167.3098022590509</v>
@@ -25098,7 +25098,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J34" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R34" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S34" t="n">
         <v>212.1455389500189</v>
@@ -25131,10 +25131,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V34" t="n">
-        <v>157.4983735401875</v>
+        <v>16.63754732114123</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -25162,7 +25162,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>373.022583943762</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -25171,10 +25171,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H35" t="n">
-        <v>174.7857350257638</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,22 +25204,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25311,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>105.2976195790724</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25335,7 +25335,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J37" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R37" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S37" t="n">
         <v>212.1455389500189</v>
@@ -25368,19 +25368,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2818742419777</v>
+        <v>157.4983735401876</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25393,19 +25393,19 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>37.59930637687069</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>323.9227727643571</v>
@@ -25438,7 +25438,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>174.4157128089715</v>
@@ -25453,7 +25453,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>128.238790019117</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25548,22 +25548,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>167.3098022590509</v>
+        <v>39.25609903107602</v>
       </c>
       <c r="H40" t="n">
         <v>156.1708888417951</v>
@@ -25572,7 +25572,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J40" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R40" t="n">
-        <v>89.78322210199954</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T40" t="n">
         <v>225.0351054580843</v>
@@ -25614,10 +25614,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -25639,16 +25639,16 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>158.314702996839</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,28 +25675,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T41" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>44.21844888415427</v>
       </c>
     </row>
     <row r="42">
@@ -25794,13 +25794,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>82.46735232787617</v>
       </c>
       <c r="G43" t="n">
-        <v>18.67446991260582</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>156.1708888417951</v>
@@ -25809,7 +25809,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J43" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S43" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.2818742419777</v>
@@ -25851,7 +25851,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -25867,10 +25867,10 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>74.74425144011394</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25912,7 +25912,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>174.4157128089715</v>
@@ -25924,13 +25924,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>106.7500797718384</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26034,10 +26034,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>156.1708888417951</v>
@@ -26073,13 +26073,13 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S46" t="n">
-        <v>21.87414536972213</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2818742419777</v>
+        <v>183.7062254855788</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>457001.3944062361</v>
+        <v>457001.394406236</v>
       </c>
     </row>
     <row r="5">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>789569.9565778476</v>
+        <v>789569.9565778475</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>789569.9565778475</v>
+        <v>789569.9565778476</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>789569.9565778476</v>
+        <v>789569.9565778475</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>789569.9565778476</v>
+        <v>789569.9565778475</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>789569.9565778475</v>
+        <v>789569.9565778477</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>789569.9565778475</v>
+        <v>789569.9565778474</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>789569.9565778476</v>
+        <v>789569.9565778475</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>789569.9565778474</v>
+        <v>789569.9565778475</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>789569.9565778475</v>
+        <v>789569.9565778476</v>
       </c>
     </row>
   </sheetData>
@@ -26322,28 +26322,28 @@
         <v>132928.5380250659</v>
       </c>
       <c r="E2" t="n">
-        <v>231322.0880126061</v>
+        <v>231322.0880126062</v>
       </c>
       <c r="F2" t="n">
         <v>231322.0880126061</v>
       </c>
       <c r="G2" t="n">
-        <v>231322.0880126062</v>
+        <v>231322.0880126061</v>
       </c>
       <c r="H2" t="n">
         <v>231322.0880126061</v>
       </c>
       <c r="I2" t="n">
-        <v>231322.0880126061</v>
+        <v>231322.0880126062</v>
       </c>
       <c r="J2" t="n">
-        <v>231322.0880126061</v>
+        <v>231322.0880126062</v>
       </c>
       <c r="K2" t="n">
         <v>231322.0880126062</v>
       </c>
       <c r="L2" t="n">
-        <v>231322.0880126062</v>
+        <v>231322.0880126061</v>
       </c>
       <c r="M2" t="n">
         <v>231322.0880126061</v>
@@ -26352,10 +26352,10 @@
         <v>231322.0880126062</v>
       </c>
       <c r="O2" t="n">
-        <v>231322.0880126061</v>
+        <v>231322.0880126062</v>
       </c>
       <c r="P2" t="n">
-        <v>231322.0880126061</v>
+        <v>231322.0880126062</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>432846.1740429961</v>
+        <v>432846.1740429962</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910619</v>
+        <v>63059.94259910623</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26435,16 +26435,16 @@
         <v>9371.018034361483</v>
       </c>
       <c r="H4" t="n">
+        <v>9371.018034361485</v>
+      </c>
+      <c r="I4" t="n">
+        <v>9371.018034361485</v>
+      </c>
+      <c r="J4" t="n">
+        <v>9371.018034361485</v>
+      </c>
+      <c r="K4" t="n">
         <v>9371.018034361483</v>
-      </c>
-      <c r="I4" t="n">
-        <v>9371.018034361483</v>
-      </c>
-      <c r="J4" t="n">
-        <v>9371.018034361483</v>
-      </c>
-      <c r="K4" t="n">
-        <v>9371.018034361485</v>
       </c>
       <c r="L4" t="n">
         <v>9371.018034361485</v>
@@ -26453,13 +26453,13 @@
         <v>9371.018034361485</v>
       </c>
       <c r="N4" t="n">
+        <v>9371.018034361485</v>
+      </c>
+      <c r="O4" t="n">
         <v>9371.018034361483</v>
       </c>
-      <c r="O4" t="n">
+      <c r="P4" t="n">
         <v>9371.018034361485</v>
-      </c>
-      <c r="P4" t="n">
-        <v>9371.018034361483</v>
       </c>
     </row>
     <row r="5">
@@ -26484,7 +26484,7 @@
         <v>49231.47806340946</v>
       </c>
       <c r="G5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340948</v>
       </c>
       <c r="H5" t="n">
         <v>49231.47806340947</v>
@@ -26493,25 +26493,25 @@
         <v>49231.47806340947</v>
       </c>
       <c r="J5" t="n">
+        <v>49231.47806340947</v>
+      </c>
+      <c r="K5" t="n">
         <v>49231.47806340946</v>
       </c>
-      <c r="K5" t="n">
-        <v>49231.47806340947</v>
-      </c>
       <c r="L5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="M5" t="n">
         <v>49231.47806340947</v>
       </c>
       <c r="N5" t="n">
+        <v>49231.47806340946</v>
+      </c>
+      <c r="O5" t="n">
         <v>49231.47806340947</v>
       </c>
-      <c r="O5" t="n">
-        <v>49231.47806340946</v>
-      </c>
       <c r="P5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4669.273339585889</v>
+        <v>-16887.28395962633</v>
       </c>
       <c r="C6" t="n">
-        <v>76100.15819196188</v>
+        <v>63882.14757192138</v>
       </c>
       <c r="D6" t="n">
-        <v>76100.15819196185</v>
+        <v>63882.14757192141</v>
       </c>
       <c r="E6" t="n">
-        <v>-260126.582128161</v>
+        <v>-266194.9958739802</v>
       </c>
       <c r="F6" t="n">
-        <v>172719.5919148351</v>
+        <v>166651.178169016</v>
       </c>
       <c r="G6" t="n">
-        <v>172719.5919148352</v>
+        <v>166651.1781690159</v>
       </c>
       <c r="H6" t="n">
-        <v>172719.5919148352</v>
+        <v>166651.1781690159</v>
       </c>
       <c r="I6" t="n">
-        <v>172719.5919148352</v>
+        <v>166651.178169016</v>
       </c>
       <c r="J6" t="n">
-        <v>109659.6493157289</v>
+        <v>103591.2355699098</v>
       </c>
       <c r="K6" t="n">
-        <v>172719.5919148352</v>
+        <v>166651.178169016</v>
       </c>
       <c r="L6" t="n">
-        <v>172719.5919148352</v>
+        <v>166651.178169016</v>
       </c>
       <c r="M6" t="n">
-        <v>64746.23124077696</v>
+        <v>58677.81749495778</v>
       </c>
       <c r="N6" t="n">
-        <v>172719.5919148352</v>
+        <v>166651.178169016</v>
       </c>
       <c r="O6" t="n">
-        <v>172719.5919148352</v>
+        <v>166651.178169016</v>
       </c>
       <c r="P6" t="n">
-        <v>172719.5919148352</v>
+        <v>166651.178169016</v>
       </c>
     </row>
   </sheetData>
@@ -26746,37 +26746,37 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
+        <v>377.7436642170867</v>
+      </c>
+      <c r="F3" t="n">
+        <v>377.7436642170867</v>
+      </c>
+      <c r="G3" t="n">
+        <v>377.7436642170868</v>
+      </c>
+      <c r="H3" t="n">
         <v>377.7436642170866</v>
       </c>
-      <c r="F3" t="n">
+      <c r="I3" t="n">
         <v>377.7436642170866</v>
       </c>
-      <c r="G3" t="n">
-        <v>377.7436642170867</v>
-      </c>
-      <c r="H3" t="n">
-        <v>377.7436642170867</v>
-      </c>
-      <c r="I3" t="n">
-        <v>377.7436642170867</v>
-      </c>
       <c r="J3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="K3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="L3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="M3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="N3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="O3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="P3" t="n">
         <v>377.7436642170866</v>
@@ -26813,25 +26813,25 @@
         <v>674.2872727545557</v>
       </c>
       <c r="J4" t="n">
+        <v>674.2872727545557</v>
+      </c>
+      <c r="K4" t="n">
         <v>674.2872727545556</v>
       </c>
-      <c r="K4" t="n">
-        <v>674.2872727545557</v>
-      </c>
       <c r="L4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="M4" t="n">
         <v>674.2872727545557</v>
       </c>
       <c r="N4" t="n">
+        <v>674.2872727545556</v>
+      </c>
+      <c r="O4" t="n">
         <v>674.2872727545557</v>
       </c>
-      <c r="O4" t="n">
-        <v>674.2872727545556</v>
-      </c>
       <c r="P4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545557</v>
       </c>
     </row>
   </sheetData>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776589</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>433.2729838768967</v>
+        <v>433.2729838768968</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31758,19 +31758,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I11" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J11" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K11" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L11" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M11" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N11" t="n">
         <v>270.9617944338304</v>
@@ -31785,13 +31785,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R11" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S11" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T11" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U11" t="n">
         <v>0.1214853995472036</v>
@@ -31831,16 +31831,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H12" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I12" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J12" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K12" t="n">
         <v>131.2017781649102</v>
@@ -31858,22 +31858,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P12" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q12" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R12" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S12" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T12" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,16 +31910,16 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H13" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I13" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J13" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K13" t="n">
         <v>79.14039391302239</v>
@@ -31934,16 +31934,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O13" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P13" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R13" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S13" t="n">
         <v>11.87105908695336</v>
@@ -31995,19 +31995,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I14" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J14" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K14" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L14" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M14" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N14" t="n">
         <v>270.9617944338304</v>
@@ -32022,13 +32022,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R14" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S14" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T14" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U14" t="n">
         <v>0.1214853995472036</v>
@@ -32068,16 +32068,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H15" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I15" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J15" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K15" t="n">
         <v>131.2017781649102</v>
@@ -32095,22 +32095,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P15" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q15" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R15" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S15" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T15" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,16 +32147,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H16" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I16" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J16" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K16" t="n">
         <v>79.14039391302239</v>
@@ -32171,16 +32171,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O16" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P16" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R16" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S16" t="n">
         <v>11.87105908695336</v>
@@ -32232,7 +32232,7 @@
         <v>15.55202935141</v>
       </c>
       <c r="I17" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J17" t="n">
         <v>128.8865178727436</v>
@@ -32241,34 +32241,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L17" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M17" t="n">
         <v>266.6471645405368</v>
       </c>
       <c r="N17" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O17" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P17" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q17" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R17" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S17" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T17" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,40 +32305,40 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H18" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I18" t="n">
         <v>27.9744128689069</v>
       </c>
       <c r="J18" t="n">
-        <v>76.76392708396477</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K18" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L18" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M18" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N18" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O18" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P18" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q18" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R18" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S18" t="n">
         <v>15.09192847131473</v>
@@ -32347,7 +32347,7 @@
         <v>3.274966296372666</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,19 +32384,19 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H19" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I19" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J19" t="n">
-        <v>48.15922092813578</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K19" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L19" t="n">
         <v>101.2724571246924</v>
@@ -32408,25 +32408,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O19" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P19" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q19" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R19" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S19" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T19" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U19" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32469,19 +32469,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I20" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J20" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K20" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L20" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M20" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N20" t="n">
         <v>270.9617944338304</v>
@@ -32496,13 +32496,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R20" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S20" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T20" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U20" t="n">
         <v>0.1214853995472036</v>
@@ -32542,16 +32542,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H21" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I21" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J21" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K21" t="n">
         <v>131.2017781649102</v>
@@ -32569,22 +32569,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P21" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q21" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R21" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S21" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T21" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,16 +32621,16 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H22" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I22" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J22" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K22" t="n">
         <v>79.14039391302239</v>
@@ -32645,16 +32645,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O22" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P22" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q22" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R22" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S22" t="n">
         <v>11.87105908695336</v>
@@ -32706,19 +32706,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I23" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J23" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K23" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L23" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M23" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N23" t="n">
         <v>270.9617944338304</v>
@@ -32733,13 +32733,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R23" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S23" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T23" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U23" t="n">
         <v>0.1214853995472036</v>
@@ -32779,16 +32779,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H24" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I24" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J24" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K24" t="n">
         <v>131.2017781649102</v>
@@ -32806,22 +32806,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P24" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q24" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R24" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S24" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T24" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U24" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,16 +32858,16 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H25" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I25" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J25" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K25" t="n">
         <v>79.14039391302239</v>
@@ -32882,16 +32882,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O25" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P25" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q25" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R25" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S25" t="n">
         <v>11.87105908695336</v>
@@ -32943,19 +32943,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I26" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J26" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K26" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L26" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M26" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N26" t="n">
         <v>270.9617944338304</v>
@@ -32970,13 +32970,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R26" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S26" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T26" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U26" t="n">
         <v>0.1214853995472036</v>
@@ -33016,16 +33016,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H27" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I27" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J27" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K27" t="n">
         <v>131.2017781649102</v>
@@ -33043,22 +33043,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P27" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q27" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R27" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S27" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T27" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U27" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,16 +33095,16 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H28" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I28" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J28" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K28" t="n">
         <v>79.14039391302239</v>
@@ -33119,16 +33119,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O28" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P28" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q28" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R28" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S28" t="n">
         <v>11.87105908695336</v>
@@ -33180,19 +33180,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I29" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J29" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K29" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L29" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M29" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N29" t="n">
         <v>270.9617944338304</v>
@@ -33207,13 +33207,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R29" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S29" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T29" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U29" t="n">
         <v>0.1214853995472036</v>
@@ -33253,16 +33253,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H30" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I30" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J30" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K30" t="n">
         <v>131.2017781649102</v>
@@ -33280,22 +33280,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P30" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q30" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R30" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S30" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T30" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U30" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,16 +33332,16 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H31" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I31" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J31" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K31" t="n">
         <v>79.14039391302239</v>
@@ -33356,16 +33356,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O31" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P31" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q31" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R31" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S31" t="n">
         <v>11.87105908695336</v>
@@ -33417,19 +33417,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I32" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J32" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K32" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L32" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M32" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N32" t="n">
         <v>270.9617944338304</v>
@@ -33444,13 +33444,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R32" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S32" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T32" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U32" t="n">
         <v>0.1214853995472036</v>
@@ -33490,16 +33490,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H33" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I33" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J33" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K33" t="n">
         <v>131.2017781649102</v>
@@ -33517,22 +33517,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P33" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q33" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R33" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S33" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T33" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U33" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,16 +33569,16 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H34" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I34" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J34" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K34" t="n">
         <v>79.14039391302239</v>
@@ -33593,16 +33593,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O34" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P34" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q34" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R34" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S34" t="n">
         <v>11.87105908695336</v>
@@ -33654,19 +33654,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I35" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J35" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K35" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L35" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M35" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N35" t="n">
         <v>270.9617944338304</v>
@@ -33681,13 +33681,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R35" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S35" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T35" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U35" t="n">
         <v>0.1214853995472036</v>
@@ -33727,16 +33727,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H36" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I36" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J36" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K36" t="n">
         <v>131.2017781649102</v>
@@ -33754,22 +33754,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P36" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q36" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R36" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S36" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T36" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U36" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,16 +33806,16 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H37" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I37" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J37" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K37" t="n">
         <v>79.14039391302239</v>
@@ -33830,16 +33830,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O37" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P37" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q37" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R37" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S37" t="n">
         <v>11.87105908695336</v>
@@ -33891,19 +33891,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I38" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J38" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K38" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L38" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M38" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N38" t="n">
         <v>270.9617944338304</v>
@@ -33918,13 +33918,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R38" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S38" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T38" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U38" t="n">
         <v>0.1214853995472036</v>
@@ -33964,16 +33964,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H39" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I39" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J39" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K39" t="n">
         <v>131.2017781649102</v>
@@ -33991,22 +33991,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P39" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q39" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R39" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S39" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T39" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,16 +34043,16 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H40" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I40" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J40" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K40" t="n">
         <v>79.14039391302239</v>
@@ -34067,16 +34067,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O40" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P40" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q40" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R40" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S40" t="n">
         <v>11.87105908695336</v>
@@ -34128,19 +34128,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I41" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J41" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K41" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L41" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M41" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N41" t="n">
         <v>270.9617944338304</v>
@@ -34155,13 +34155,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R41" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S41" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T41" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U41" t="n">
         <v>0.1214853995472036</v>
@@ -34201,16 +34201,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H42" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I42" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J42" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K42" t="n">
         <v>131.2017781649102</v>
@@ -34228,22 +34228,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P42" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q42" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R42" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S42" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T42" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,16 +34280,16 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H43" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I43" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J43" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K43" t="n">
         <v>79.14039391302239</v>
@@ -34304,16 +34304,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O43" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P43" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q43" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R43" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S43" t="n">
         <v>11.87105908695336</v>
@@ -34789,16 +34789,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>43.28534947792182</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35017,10 +35017,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>232.285965523585</v>
+        <v>231.276337811895</v>
       </c>
       <c r="M6" t="n">
         <v>241.0142888776591</v>
@@ -35029,13 +35029,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>43.28534947792182</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35263,16 +35263,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>226.4350751681936</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,19 +35409,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K11" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L11" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M11" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N11" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O11" t="n">
         <v>406.5635087530452</v>
@@ -35491,22 +35491,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624593</v>
       </c>
       <c r="L12" t="n">
-        <v>365.2844632307155</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M12" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N12" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O12" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P12" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q12" t="n">
         <v>173.8110948137341</v>
@@ -35646,19 +35646,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K14" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L14" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M14" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N14" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O14" t="n">
         <v>406.5635087530452</v>
@@ -35725,10 +35725,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624589</v>
       </c>
       <c r="L15" t="n">
         <v>408.7029475713857</v>
@@ -35737,16 +35737,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N15" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O15" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P15" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q15" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35889,22 +35889,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L17" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M17" t="n">
         <v>485.8144648060966</v>
       </c>
       <c r="N17" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O17" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P17" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q17" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35962,16 +35962,16 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624592</v>
       </c>
       <c r="L18" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M18" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N18" t="n">
         <v>559.3197334338903</v>
@@ -35983,7 +35983,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q18" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,7 +36044,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L19" t="n">
         <v>128.8624823850085</v>
@@ -36056,10 +36056,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O19" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P19" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36120,19 +36120,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K20" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L20" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M20" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N20" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O20" t="n">
         <v>406.5635087530452</v>
@@ -36199,10 +36199,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K21" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047526</v>
       </c>
       <c r="L21" t="n">
         <v>408.7029475713857</v>
@@ -36211,16 +36211,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N21" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O21" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P21" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q21" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36357,19 +36357,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K23" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L23" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M23" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N23" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O23" t="n">
         <v>406.5635087530452</v>
@@ -36436,10 +36436,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K24" t="n">
-        <v>214.4070918624593</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L24" t="n">
         <v>408.7029475713857</v>
@@ -36448,13 +36448,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N24" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O24" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P24" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q24" t="n">
         <v>173.8110948137341</v>
@@ -36594,19 +36594,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K26" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L26" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M26" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N26" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O26" t="n">
         <v>406.5635087530452</v>
@@ -36673,10 +36673,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K27" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047526</v>
       </c>
       <c r="L27" t="n">
         <v>408.7029475713857</v>
@@ -36685,13 +36685,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N27" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O27" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P27" t="n">
-        <v>220.2054057751866</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q27" t="n">
         <v>173.8110948137341</v>
@@ -36831,19 +36831,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K29" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L29" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M29" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N29" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O29" t="n">
         <v>406.5635087530452</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>257.8255762031298</v>
@@ -36922,16 +36922,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N30" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O30" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P30" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q30" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37068,19 +37068,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K32" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L32" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M32" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N32" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O32" t="n">
         <v>406.5635087530452</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>257.8255762031298</v>
@@ -37159,16 +37159,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N33" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O33" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P33" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q33" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37305,19 +37305,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K35" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L35" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M35" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N35" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O35" t="n">
         <v>406.5635087530452</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K36" t="n">
         <v>257.8255762031298</v>
@@ -37396,16 +37396,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N36" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O36" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P36" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q36" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37542,19 +37542,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K38" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L38" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M38" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N38" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O38" t="n">
         <v>406.5635087530452</v>
@@ -37624,7 +37624,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>214.4070918624593</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L39" t="n">
         <v>408.7029475713857</v>
@@ -37633,16 +37633,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N39" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O39" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P39" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q39" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37779,19 +37779,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K41" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L41" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M41" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N41" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O41" t="n">
         <v>406.5635087530452</v>
@@ -37858,10 +37858,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L42" t="n">
         <v>408.7029475713857</v>
@@ -37870,13 +37870,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N42" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O42" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P42" t="n">
-        <v>220.2054057751866</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q42" t="n">
         <v>173.8110948137341</v>
@@ -38098,7 +38098,7 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K45" t="n">
-        <v>138.3897561047517</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L45" t="n">
         <v>408.7029475713857</v>
@@ -38107,7 +38107,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N45" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O45" t="n">
         <v>444.5817404245898</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_1_16.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_1_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>684376.5094811316</v>
+        <v>745211.9843928317</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>337002.2430554234</v>
+        <v>337002.243055424</v>
       </c>
     </row>
     <row r="8">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>202.2946864288972</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C2" t="n">
         <v>241.0142888776591</v>
@@ -703,7 +703,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>241.0142888776591</v>
+        <v>212.285385643442</v>
       </c>
     </row>
     <row r="3">
@@ -740,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -752,10 +752,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>123.3365499318637</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -800,10 +800,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>241.0142888776591</v>
+        <v>98.10479885422598</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -904,13 +904,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>62.4162677022923</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -949,16 +949,16 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W5" t="n">
-        <v>241.0142888776591</v>
+        <v>80.33470701582003</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -974,16 +974,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -1022,28 +1022,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>19.15541836171551</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>29.79900896488263</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1107,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1141,13 +1141,13 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>62.4162677022923</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1183,16 +1183,16 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>80.33470701581992</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="V8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1229,7 +1229,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1268,19 +1268,19 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>50.05769526855297</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>241.0142888776591</v>
+        <v>158.577853606045</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="W10" t="n">
-        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1372,13 +1372,13 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>56.31449141872313</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>242.2866730943824</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1417,13 +1417,13 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U11" t="n">
         <v>251.2241675082893</v>
@@ -1432,10 +1432,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1469,7 +1469,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I12" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>49.71123688229341</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S12" t="n">
         <v>156.5912426325231</v>
@@ -1505,7 +1505,7 @@
         <v>196.8897623984489</v>
       </c>
       <c r="U12" t="n">
-        <v>225.8879277888686</v>
+        <v>225.8879277888678</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1533,13 +1533,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>87.1257470790879</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1581,16 +1581,16 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>9.452075920964635</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1606,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>186.8185428348314</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1654,28 +1654,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>140.52444261343</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S15" t="n">
         <v>156.5912426325231</v>
@@ -1767,16 +1767,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>15.90252802695406</v>
       </c>
       <c r="E16" t="n">
-        <v>68.49439899867248</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1821,19 +1821,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1843,10 +1843,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>355.1993340151797</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>205.5899941284269</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1855,10 +1855,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1891,25 +1891,25 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.47840257481167</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1937,13 +1937,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>136.5310119231968</v>
+        <v>136.5310119231958</v>
       </c>
       <c r="H18" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I18" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S18" t="n">
         <v>156.5912426325231</v>
@@ -2004,19 +2004,19 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>55.84003136202649</v>
+        <v>123.4514883688806</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2061,16 +2061,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2080,16 +2080,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>116.0924447782244</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2128,7 +2128,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S20" t="n">
         <v>174.4157128089715</v>
@@ -2140,16 +2140,16 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>149.3055094953044</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2177,10 +2177,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H21" t="n">
-        <v>104.3883541553078</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I21" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250752</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S21" t="n">
         <v>156.5912426325231</v>
@@ -2238,19 +2238,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>75.2089105338177</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2307,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>117.1560086992563</v>
       </c>
     </row>
     <row r="23">
@@ -2317,28 +2317,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>9.821608734732921</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>32.88118763166004</v>
       </c>
       <c r="G23" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2417,7 +2417,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I24" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250752</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S24" t="n">
         <v>156.5912426325231</v>
@@ -2487,10 +2487,10 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>94.63926978364033</v>
       </c>
       <c r="G25" t="n">
-        <v>94.63926978364043</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2563,10 +2563,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>186.3684235236514</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>413.784170020795</v>
@@ -2620,7 +2620,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>150.026950051628</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2645,7 +2645,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933841</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
         <v>136.5310119231965</v>
@@ -2654,7 +2654,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I27" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S27" t="n">
         <v>156.5912426325231</v>
@@ -2715,10 +2715,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2769,19 +2769,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>89.06613335611772</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>59.72683757586846</v>
       </c>
     </row>
     <row r="29">
@@ -2791,19 +2791,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>413.784170020795</v>
@@ -2812,7 +2812,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2839,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -2851,16 +2851,16 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>230.2001889803887</v>
       </c>
       <c r="W29" t="n">
-        <v>221.002178698296</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2885,13 +2885,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>136.5310119231965</v>
+        <v>136.5310119231963</v>
       </c>
       <c r="H30" t="n">
         <v>104.3883541553076</v>
       </c>
       <c r="I30" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S30" t="n">
         <v>156.5912426325231</v>
@@ -2955,13 +2955,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>11.00429467105817</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>94.63926978364032</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3000,25 +3000,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3028,10 +3028,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3040,16 +3040,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3076,22 +3076,22 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S32" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>331.8383661153337</v>
+        <v>142.6046016971394</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3128,7 +3128,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I33" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S33" t="n">
         <v>156.5912426325231</v>
@@ -3192,13 +3192,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>94.63926978364032</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3243,10 +3243,10 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V34" t="n">
-        <v>235.5000960026868</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3274,16 +3274,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>8.907786128499756</v>
+        <v>305.7166985710592</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H35" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3313,19 +3313,19 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S35" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3365,7 +3365,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I36" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S36" t="n">
         <v>156.5912426325231</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>142.567753130208</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3435,10 +3435,10 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3474,19 +3474,19 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>128.7835007017901</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3550,10 +3550,10 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3565,7 +3565,7 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>221.002178698296</v>
+        <v>46.58646588932399</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3602,7 +3602,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I39" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S39" t="n">
         <v>156.5912426325231</v>
@@ -3669,13 +3669,13 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>128.0537032279749</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3720,13 +3720,13 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>142.630734290631</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3742,25 +3742,25 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>166.0588731052221</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H41" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3787,28 +3787,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>342.0194897718993</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3869,7 +3869,7 @@
         <v>49.71123688229331</v>
       </c>
       <c r="S42" t="n">
-        <v>156.5912426325231</v>
+        <v>156.5912426325226</v>
       </c>
       <c r="T42" t="n">
         <v>196.8897623984489</v>
@@ -3909,10 +3909,10 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>62.95369569505508</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3948,25 +3948,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>128.7835007017901</v>
       </c>
     </row>
     <row r="44">
@@ -4024,7 +4024,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4033,10 +4033,10 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>221.002178698296</v>
       </c>
       <c r="V44" t="n">
-        <v>221.0021786982965</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4188,13 +4188,13 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>68.43141783824933</v>
       </c>
       <c r="U46" t="n">
-        <v>102.575648756399</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -4351,31 +4351,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y2" t="n">
-        <v>710.516763498309</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>257.2326523711826</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C3" t="n">
-        <v>257.2326523711826</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D3" t="n">
-        <v>257.2326523711826</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E3" t="n">
-        <v>257.2326523711826</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F3" t="n">
-        <v>257.2326523711826</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G3" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H3" t="n">
         <v>19.28114311021272</v>
@@ -4448,13 +4448,13 @@
         <v>500.6814290152826</v>
       </c>
       <c r="W3" t="n">
-        <v>257.2326523711826</v>
+        <v>401.5856725968725</v>
       </c>
       <c r="X3" t="n">
-        <v>257.2326523711826</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="Y3" t="n">
-        <v>257.2326523711826</v>
+        <v>193.7341723913397</v>
       </c>
     </row>
     <row r="4">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>569.2254314512334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C5" t="n">
-        <v>569.2254314512334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D5" t="n">
-        <v>569.2254314512334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E5" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F5" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G5" t="n">
         <v>19.28114311021272</v>
@@ -4597,22 +4597,22 @@
         <v>812.6742080953335</v>
       </c>
       <c r="T5" t="n">
-        <v>812.6742080953335</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="U5" t="n">
-        <v>812.6742080953335</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="V5" t="n">
-        <v>812.6742080953335</v>
+        <v>100.4273118130612</v>
       </c>
       <c r="W5" t="n">
-        <v>569.2254314512334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X5" t="n">
-        <v>569.2254314512334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y5" t="n">
-        <v>569.2254314512334</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="6">
@@ -4622,13 +4622,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>19.28114311021272</v>
+        <v>501.9060370580465</v>
       </c>
       <c r="C6" t="n">
-        <v>19.28114311021272</v>
+        <v>327.4530077769195</v>
       </c>
       <c r="D6" t="n">
-        <v>19.28114311021272</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E6" t="n">
         <v>19.28114311021272</v>
@@ -4649,19 +4649,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>248.2447175439888</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M6" t="n">
-        <v>486.8488635328713</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N6" t="n">
-        <v>725.4530095217538</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O6" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P6" t="n">
         <v>964.0571555106362</v>
@@ -4670,28 +4670,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T6" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U6" t="n">
-        <v>735.8335372470253</v>
+        <v>670.1213740781145</v>
       </c>
       <c r="V6" t="n">
-        <v>500.6814290152826</v>
+        <v>670.1213740781145</v>
       </c>
       <c r="W6" t="n">
-        <v>257.2326523711826</v>
+        <v>670.1213740781145</v>
       </c>
       <c r="X6" t="n">
-        <v>49.38115216564972</v>
+        <v>670.1213740781145</v>
       </c>
       <c r="Y6" t="n">
-        <v>19.28114311021272</v>
+        <v>670.1213740781145</v>
       </c>
     </row>
     <row r="7">
@@ -4755,13 +4755,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W7" t="n">
         <v>19.28114311021272</v>
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>569.2254314512334</v>
+        <v>262.7299197543127</v>
       </c>
       <c r="C8" t="n">
-        <v>569.2254314512334</v>
+        <v>262.7299197543127</v>
       </c>
       <c r="D8" t="n">
-        <v>569.2254314512334</v>
+        <v>262.7299197543127</v>
       </c>
       <c r="E8" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543127</v>
       </c>
       <c r="F8" t="n">
-        <v>262.7299197543128</v>
+        <v>262.7299197543127</v>
       </c>
       <c r="G8" t="n">
         <v>19.28114311021272</v>
@@ -4816,40 +4816,40 @@
         <v>519.3476278686978</v>
       </c>
       <c r="N8" t="n">
-        <v>725.2021500759372</v>
+        <v>725.2021500759371</v>
       </c>
       <c r="O8" t="n">
-        <v>874.3971002185853</v>
+        <v>874.3971002185851</v>
       </c>
       <c r="P8" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="Q8" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="R8" t="n">
-        <v>812.6742080953335</v>
+        <v>812.6742080953333</v>
       </c>
       <c r="S8" t="n">
-        <v>812.6742080953335</v>
+        <v>731.5280393924849</v>
       </c>
       <c r="T8" t="n">
-        <v>812.6742080953335</v>
+        <v>506.1786963984127</v>
       </c>
       <c r="U8" t="n">
-        <v>812.6742080953335</v>
+        <v>262.7299197543127</v>
       </c>
       <c r="V8" t="n">
-        <v>569.2254314512334</v>
+        <v>262.7299197543127</v>
       </c>
       <c r="W8" t="n">
-        <v>569.2254314512334</v>
+        <v>262.7299197543127</v>
       </c>
       <c r="X8" t="n">
-        <v>569.2254314512334</v>
+        <v>262.7299197543127</v>
       </c>
       <c r="Y8" t="n">
-        <v>569.2254314512334</v>
+        <v>262.7299197543127</v>
       </c>
     </row>
     <row r="9">
@@ -4859,22 +4859,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="C9" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="D9" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="E9" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="F9" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="G9" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H9" t="n">
         <v>19.28114311021272</v>
@@ -4892,43 +4892,43 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M9" t="n">
-        <v>487.8483949674443</v>
+        <v>486.8488635328711</v>
       </c>
       <c r="N9" t="n">
-        <v>726.4525409563269</v>
+        <v>725.4530095217535</v>
       </c>
       <c r="O9" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="P9" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="Q9" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="R9" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="S9" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="T9" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="U9" t="n">
-        <v>913.4938269565423</v>
+        <v>735.8335372470251</v>
       </c>
       <c r="V9" t="n">
-        <v>678.3417187247995</v>
+        <v>500.6814290152824</v>
       </c>
       <c r="W9" t="n">
-        <v>434.8929420806995</v>
+        <v>340.5017789081662</v>
       </c>
       <c r="X9" t="n">
-        <v>227.0414418751666</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="Y9" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
     </row>
     <row r="10">
@@ -4998,7 +4998,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W10" t="n">
         <v>19.28114311021272</v>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1683.829970582157</v>
+        <v>1485.892406545184</v>
       </c>
       <c r="C11" t="n">
-        <v>1626.94664591678</v>
+        <v>1485.892406545184</v>
       </c>
       <c r="D11" t="n">
-        <v>1268.68094731003</v>
+        <v>1127.626707938434</v>
       </c>
       <c r="E11" t="n">
-        <v>882.8926947117852</v>
+        <v>882.8926947117851</v>
       </c>
       <c r="F11" t="n">
         <v>471.9067899221776</v>
       </c>
       <c r="G11" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H11" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I11" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J11" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K11" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M11" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N11" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O11" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P11" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q11" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R11" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S11" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T11" t="n">
-        <v>2642.120401548716</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U11" t="n">
-        <v>2388.358616186807</v>
+        <v>2169.723949158869</v>
       </c>
       <c r="V11" t="n">
-        <v>2057.295728843237</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W11" t="n">
-        <v>2057.295728843237</v>
+        <v>1485.892406545184</v>
       </c>
       <c r="X11" t="n">
-        <v>1683.829970582157</v>
+        <v>1485.892406545184</v>
       </c>
       <c r="Y11" t="n">
-        <v>1683.829970582157</v>
+        <v>1485.892406545184</v>
       </c>
     </row>
     <row r="12">
@@ -5117,40 +5117,40 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I12" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J12" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K12" t="n">
-        <v>266.2060027641992</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L12" t="n">
-        <v>670.8219208598711</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M12" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N12" t="n">
-        <v>1748.695370517453</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O12" t="n">
-        <v>2188.831293537797</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P12" t="n">
-        <v>2525.076107152626</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q12" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R12" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S12" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T12" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U12" t="n">
         <v>2061.714576167582</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>438.9553738610024</v>
+        <v>201.8560754027575</v>
       </c>
       <c r="C13" t="n">
-        <v>438.9553738610024</v>
+        <v>201.8560754027575</v>
       </c>
       <c r="D13" t="n">
-        <v>288.8387344486666</v>
+        <v>201.8560754027575</v>
       </c>
       <c r="E13" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F13" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G13" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H13" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I13" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J13" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K13" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L13" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M13" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N13" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O13" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T13" t="n">
-        <v>728.1289842064344</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U13" t="n">
-        <v>438.9553738610024</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V13" t="n">
-        <v>438.9553738610024</v>
+        <v>491.2732454397182</v>
       </c>
       <c r="W13" t="n">
-        <v>438.9553738610024</v>
+        <v>201.8560754027575</v>
       </c>
       <c r="X13" t="n">
-        <v>438.9553738610024</v>
+        <v>201.8560754027575</v>
       </c>
       <c r="Y13" t="n">
-        <v>438.9553738610024</v>
+        <v>201.8560754027575</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>781.1711973675267</v>
+        <v>2307.009759042411</v>
       </c>
       <c r="C14" t="n">
-        <v>412.2086804271149</v>
+        <v>1938.047242101999</v>
       </c>
       <c r="D14" t="n">
-        <v>53.94298182036445</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E14" t="n">
-        <v>53.94298182036445</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F14" t="n">
-        <v>53.94298182036445</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G14" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H14" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I14" t="n">
         <v>53.94298182036445</v>
@@ -5281,7 +5281,7 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K14" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L14" t="n">
         <v>881.2824271224076</v>
@@ -5302,28 +5302,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R14" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S14" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T14" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U14" t="n">
-        <v>1993.54646147304</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V14" t="n">
-        <v>1662.48357412947</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W14" t="n">
-        <v>1309.714918859356</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X14" t="n">
-        <v>1167.771037431648</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y14" t="n">
-        <v>1167.771037431648</v>
+        <v>2307.009759042411</v>
       </c>
     </row>
     <row r="15">
@@ -5333,67 +5333,67 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C15" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D15" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E15" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F15" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G15" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H15" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I15" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J15" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K15" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L15" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M15" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N15" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O15" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P15" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q15" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R15" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S15" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T15" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U15" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V15" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W15" t="n">
         <v>1572.325111207638</v>
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>438.9553738610024</v>
+        <v>217.9192350259435</v>
       </c>
       <c r="C16" t="n">
-        <v>270.0191909330955</v>
+        <v>217.9192350259435</v>
       </c>
       <c r="D16" t="n">
-        <v>270.0191909330955</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E16" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F16" t="n">
         <v>53.94298182036445</v>
@@ -5442,46 +5442,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L16" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M16" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N16" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O16" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P16" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q16" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R16" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S16" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T16" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U16" t="n">
-        <v>438.9553738610024</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V16" t="n">
-        <v>438.9553738610024</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W16" t="n">
-        <v>438.9553738610024</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X16" t="n">
-        <v>438.9553738610024</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="Y16" t="n">
-        <v>438.9553738610024</v>
+        <v>217.9192350259435</v>
       </c>
     </row>
     <row r="17">
@@ -5491,37 +5491,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1166.959449965771</v>
+        <v>1834.613306652564</v>
       </c>
       <c r="C17" t="n">
-        <v>797.9969330253592</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D17" t="n">
-        <v>439.7312344186087</v>
+        <v>1268.680947310029</v>
       </c>
       <c r="E17" t="n">
-        <v>53.94298182036446</v>
+        <v>882.8926947117851</v>
       </c>
       <c r="F17" t="n">
-        <v>53.94298182036446</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G17" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H17" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I17" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J17" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K17" t="n">
-        <v>463.961649073313</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L17" t="n">
-        <v>881.282427122408</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
@@ -5533,34 +5533,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P17" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q17" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R17" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S17" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T17" t="n">
-        <v>2642.120401548716</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U17" t="n">
-        <v>2642.120401548716</v>
+        <v>2224.752638628376</v>
       </c>
       <c r="V17" t="n">
-        <v>2642.120401548716</v>
+        <v>2224.752638628376</v>
       </c>
       <c r="W17" t="n">
-        <v>2289.351746278602</v>
+        <v>2224.752638628376</v>
       </c>
       <c r="X17" t="n">
-        <v>1915.885988017522</v>
+        <v>2224.752638628376</v>
       </c>
       <c r="Y17" t="n">
-        <v>1525.74665604171</v>
+        <v>1834.613306652564</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>988.4979752170834</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C18" t="n">
-        <v>814.0449459359564</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D18" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747043</v>
       </c>
       <c r="E18" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692488</v>
       </c>
       <c r="F18" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G18" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H18" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I18" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J18" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K18" t="n">
-        <v>266.206002764199</v>
+        <v>266.2060027641985</v>
       </c>
       <c r="L18" t="n">
-        <v>670.8219208598709</v>
+        <v>670.8219208598704</v>
       </c>
       <c r="M18" t="n">
-        <v>1194.968834417902</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N18" t="n">
-        <v>1748.695370517453</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O18" t="n">
-        <v>2188.831293537797</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P18" t="n">
-        <v>2525.076107152626</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q18" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R18" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S18" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T18" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U18" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V18" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W18" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X18" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y18" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>279.3468541648871</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="C19" t="n">
-        <v>222.942782082032</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="D19" t="n">
-        <v>222.942782082032</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E19" t="n">
-        <v>222.942782082032</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F19" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G19" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H19" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I19" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J19" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K19" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L19" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M19" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N19" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O19" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P19" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q19" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R19" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S19" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T19" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U19" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V19" t="n">
-        <v>728.1289842064346</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W19" t="n">
-        <v>728.1289842064346</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="X19" t="n">
-        <v>500.1394333084172</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="Y19" t="n">
-        <v>279.3468541648871</v>
+        <v>473.4444960005474</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1995.909162857192</v>
+        <v>1241.158393318536</v>
       </c>
       <c r="C20" t="n">
-        <v>1626.94664591678</v>
+        <v>1241.158393318536</v>
       </c>
       <c r="D20" t="n">
-        <v>1268.68094731003</v>
+        <v>882.8926947117851</v>
       </c>
       <c r="E20" t="n">
-        <v>882.8926947117852</v>
+        <v>882.8926947117851</v>
       </c>
       <c r="F20" t="n">
         <v>471.9067899221776</v>
       </c>
       <c r="G20" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H20" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I20" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J20" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K20" t="n">
-        <v>463.9616490733131</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N20" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O20" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P20" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q20" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R20" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S20" t="n">
-        <v>2465.942913862886</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T20" t="n">
-        <v>2465.942913862886</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="U20" t="n">
-        <v>2465.942913862886</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="V20" t="n">
-        <v>2465.942913862886</v>
+        <v>2134.880026519314</v>
       </c>
       <c r="W20" t="n">
-        <v>2113.174258592772</v>
+        <v>1782.1113712492</v>
       </c>
       <c r="X20" t="n">
-        <v>2113.174258592772</v>
+        <v>1631.297725294347</v>
       </c>
       <c r="Y20" t="n">
-        <v>2113.174258592772</v>
+        <v>1241.158393318536</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>988.4979752170834</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C21" t="n">
-        <v>814.0449459359564</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D21" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747043</v>
       </c>
       <c r="E21" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692488</v>
       </c>
       <c r="F21" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G21" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H21" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673417</v>
       </c>
       <c r="I21" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J21" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K21" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L21" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M21" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N21" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O21" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P21" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q21" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R21" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S21" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T21" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U21" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V21" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W21" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X21" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y21" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="22">
@@ -5886,31 +5886,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>280.0282177315059</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="C22" t="n">
-        <v>280.0282177315059</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D22" t="n">
-        <v>129.9115783191702</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E22" t="n">
-        <v>53.94298182036446</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F22" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G22" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H22" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I22" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J22" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K22" t="n">
         <v>110.2451748866326</v>
@@ -5919,43 +5919,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M22" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N22" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O22" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P22" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q22" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R22" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S22" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T22" t="n">
-        <v>500.8207968750361</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U22" t="n">
-        <v>500.8207968750361</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V22" t="n">
-        <v>500.8207968750361</v>
+        <v>500.820796875036</v>
       </c>
       <c r="W22" t="n">
-        <v>500.8207968750361</v>
+        <v>500.820796875036</v>
       </c>
       <c r="X22" t="n">
-        <v>500.8207968750361</v>
+        <v>500.820796875036</v>
       </c>
       <c r="Y22" t="n">
-        <v>280.0282177315059</v>
+        <v>382.4813941485145</v>
       </c>
     </row>
     <row r="23">
@@ -5965,31 +5965,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1236.578376364604</v>
+        <v>1344.046505337896</v>
       </c>
       <c r="C23" t="n">
-        <v>867.6158594241924</v>
+        <v>1344.046505337896</v>
       </c>
       <c r="D23" t="n">
-        <v>857.6950425204218</v>
+        <v>985.7808067311457</v>
       </c>
       <c r="E23" t="n">
-        <v>471.9067899221776</v>
+        <v>985.7808067311457</v>
       </c>
       <c r="F23" t="n">
-        <v>471.9067899221776</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G23" t="n">
-        <v>53.94298182036446</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H23" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I23" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J23" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K23" t="n">
         <v>463.9616490733126</v>
@@ -6016,25 +6016,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S23" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T23" t="n">
-        <v>2697.149091018222</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U23" t="n">
-        <v>2697.149091018222</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V23" t="n">
-        <v>2366.086203674652</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W23" t="n">
-        <v>2013.317548404538</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="X23" t="n">
-        <v>2013.317548404538</v>
+        <v>1344.046505337896</v>
       </c>
       <c r="Y23" t="n">
-        <v>1623.178216428726</v>
+        <v>1344.046505337896</v>
       </c>
     </row>
     <row r="24">
@@ -6044,73 +6044,73 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C24" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D24" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747043</v>
       </c>
       <c r="E24" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692488</v>
       </c>
       <c r="F24" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G24" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H24" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673417</v>
       </c>
       <c r="I24" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J24" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K24" t="n">
-        <v>384.4474646615928</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L24" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M24" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N24" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O24" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P24" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q24" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R24" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S24" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T24" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U24" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V24" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W24" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X24" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y24" t="n">
         <v>1156.713312237151</v>
@@ -6123,31 +6123,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>149.5382038240417</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="C25" t="n">
-        <v>149.5382038240417</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="D25" t="n">
-        <v>149.5382038240417</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="E25" t="n">
-        <v>149.5382038240417</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="F25" t="n">
-        <v>149.5382038240417</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G25" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H25" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I25" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J25" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K25" t="n">
         <v>110.2451748866326</v>
@@ -6156,43 +6156,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M25" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N25" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O25" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P25" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q25" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R25" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S25" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T25" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U25" t="n">
-        <v>438.9553738610023</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V25" t="n">
-        <v>438.9553738610023</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W25" t="n">
-        <v>149.5382038240417</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="X25" t="n">
-        <v>149.5382038240417</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="Y25" t="n">
-        <v>149.5382038240417</v>
+        <v>149.5382038240415</v>
       </c>
     </row>
     <row r="26">
@@ -6202,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1995.909162857192</v>
+        <v>1387.385938321513</v>
       </c>
       <c r="C26" t="n">
-        <v>1626.94664591678</v>
+        <v>1018.423421381101</v>
       </c>
       <c r="D26" t="n">
-        <v>1268.68094731003</v>
+        <v>660.1577227743508</v>
       </c>
       <c r="E26" t="n">
-        <v>882.8926947117852</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="F26" t="n">
         <v>471.9067899221776</v>
       </c>
       <c r="G26" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H26" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I26" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J26" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733128</v>
       </c>
       <c r="L26" t="n">
         <v>881.2824271224076</v>
@@ -6238,40 +6238,40 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N26" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O26" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P26" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q26" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R26" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S26" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T26" t="n">
-        <v>2478.514423990286</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U26" t="n">
-        <v>2478.514423990286</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V26" t="n">
-        <v>2147.451536646715</v>
+        <v>2147.451536646714</v>
       </c>
       <c r="W26" t="n">
-        <v>2147.451536646715</v>
+        <v>2147.451536646714</v>
       </c>
       <c r="X26" t="n">
-        <v>1995.909162857192</v>
+        <v>1773.985778385635</v>
       </c>
       <c r="Y26" t="n">
-        <v>1995.909162857192</v>
+        <v>1773.985778385635</v>
       </c>
     </row>
     <row r="27">
@@ -6281,67 +6281,67 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>988.4979752170834</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C27" t="n">
-        <v>814.0449459359564</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D27" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E27" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F27" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G27" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H27" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I27" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J27" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K27" t="n">
-        <v>266.2060027641994</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L27" t="n">
-        <v>670.8219208598713</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M27" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N27" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O27" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P27" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q27" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R27" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S27" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T27" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U27" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V27" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W27" t="n">
         <v>1572.325111207638</v>
@@ -6350,7 +6350,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y27" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="28">
@@ -6360,10 +6360,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>348.7460229006679</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C28" t="n">
-        <v>348.7460229006679</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D28" t="n">
         <v>348.7460229006679</v>
@@ -6372,19 +6372,19 @@
         <v>200.8329293182748</v>
       </c>
       <c r="F28" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G28" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H28" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I28" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J28" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K28" t="n">
         <v>110.2451748866326</v>
@@ -6393,43 +6393,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M28" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N28" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O28" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P28" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q28" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R28" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S28" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T28" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U28" t="n">
-        <v>638.1631929376285</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V28" t="n">
-        <v>638.1631929376285</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W28" t="n">
-        <v>348.7460229006679</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X28" t="n">
-        <v>348.7460229006679</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y28" t="n">
-        <v>348.7460229006679</v>
+        <v>667.7988452409105</v>
       </c>
     </row>
     <row r="29">
@@ -6439,43 +6439,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1268.68094731003</v>
+        <v>1738.389234072494</v>
       </c>
       <c r="C29" t="n">
-        <v>1268.68094731003</v>
+        <v>1369.426717132083</v>
       </c>
       <c r="D29" t="n">
-        <v>1268.68094731003</v>
+        <v>1011.161018525332</v>
       </c>
       <c r="E29" t="n">
-        <v>882.8926947117852</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="F29" t="n">
-        <v>471.9067899221776</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G29" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H29" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I29" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J29" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K29" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N29" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O29" t="n">
         <v>2238.843319642689</v>
@@ -6487,28 +6487,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R29" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S29" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T29" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U29" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V29" t="n">
-        <v>2642.120401548716</v>
+        <v>2464.623647603688</v>
       </c>
       <c r="W29" t="n">
-        <v>2418.885877611043</v>
+        <v>2111.854992333574</v>
       </c>
       <c r="X29" t="n">
-        <v>2045.420119349963</v>
+        <v>1738.389234072494</v>
       </c>
       <c r="Y29" t="n">
-        <v>1655.280787374151</v>
+        <v>1738.389234072494</v>
       </c>
     </row>
     <row r="30">
@@ -6524,10 +6524,10 @@
         <v>814.044945935956</v>
       </c>
       <c r="D30" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E30" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F30" t="n">
         <v>359.3385232961342</v>
@@ -6545,28 +6545,28 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K30" t="n">
-        <v>309.190302261463</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L30" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M30" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N30" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O30" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P30" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q30" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R30" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S30" t="n">
         <v>2488.762748073963</v>
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>65.05843098304948</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="C31" t="n">
-        <v>65.05843098304948</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="D31" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="E31" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="F31" t="n">
         <v>53.94298182036445</v>
@@ -6648,25 +6648,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S31" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T31" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U31" t="n">
-        <v>513.8405610245969</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V31" t="n">
-        <v>513.8405610245969</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W31" t="n">
-        <v>513.8405610245969</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="X31" t="n">
-        <v>285.8510101265796</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="Y31" t="n">
-        <v>65.05843098304948</v>
+        <v>149.5382038240415</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1912.117978031581</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="C32" t="n">
-        <v>1543.155461091169</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="D32" t="n">
-        <v>1184.889762484419</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E32" t="n">
-        <v>799.1015098861748</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F32" t="n">
-        <v>799.1015098861748</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G32" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H32" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I32" t="n">
         <v>53.94298182036445</v>
@@ -6703,10 +6703,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K32" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
@@ -6727,25 +6727,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S32" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T32" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U32" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V32" t="n">
-        <v>2247.308246834948</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W32" t="n">
-        <v>1912.117978031581</v>
+        <v>2167.012461985812</v>
       </c>
       <c r="X32" t="n">
-        <v>1912.117978031581</v>
+        <v>2167.012461985812</v>
       </c>
       <c r="Y32" t="n">
-        <v>1912.117978031581</v>
+        <v>2167.012461985812</v>
       </c>
     </row>
     <row r="33">
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>200.8329293182748</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="C34" t="n">
-        <v>200.8329293182748</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="D34" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E34" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F34" t="n">
         <v>53.94298182036445</v>
@@ -6891,19 +6891,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U34" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V34" t="n">
-        <v>490.2500993552354</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W34" t="n">
-        <v>200.8329293182748</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="X34" t="n">
-        <v>200.8329293182748</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="Y34" t="n">
-        <v>200.8329293182748</v>
+        <v>149.5382038240415</v>
       </c>
     </row>
     <row r="35">
@@ -6913,52 +6913,52 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1528.349585887293</v>
+        <v>1507.939751500713</v>
       </c>
       <c r="C35" t="n">
-        <v>1159.387068946881</v>
+        <v>1138.977234560301</v>
       </c>
       <c r="D35" t="n">
-        <v>801.1213703401306</v>
+        <v>780.7115359535505</v>
       </c>
       <c r="E35" t="n">
-        <v>792.1236065739693</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="F35" t="n">
-        <v>381.1377017843616</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G35" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H35" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I35" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J35" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N35" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O35" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P35" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q35" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R35" t="n">
         <v>2642.120401548716</v>
@@ -6967,22 +6967,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T35" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U35" t="n">
-        <v>2212.181128500978</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V35" t="n">
-        <v>1881.118241157407</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W35" t="n">
-        <v>1528.349585887293</v>
+        <v>1894.539591564834</v>
       </c>
       <c r="X35" t="n">
-        <v>1528.349585887293</v>
+        <v>1894.539591564834</v>
       </c>
       <c r="Y35" t="n">
-        <v>1528.349585887293</v>
+        <v>1894.539591564834</v>
       </c>
     </row>
     <row r="36">
@@ -6992,67 +6992,67 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C36" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D36" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E36" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F36" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G36" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H36" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I36" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J36" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K36" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L36" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M36" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N36" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O36" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P36" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q36" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R36" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S36" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T36" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U36" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V36" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W36" t="n">
         <v>1572.325111207638</v>
@@ -7071,31 +7071,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>53.94298182036446</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="C37" t="n">
-        <v>53.94298182036446</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="D37" t="n">
-        <v>53.94298182036446</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="E37" t="n">
-        <v>53.94298182036446</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F37" t="n">
-        <v>53.94298182036446</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G37" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H37" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I37" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J37" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K37" t="n">
         <v>110.2451748866326</v>
@@ -7104,43 +7104,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M37" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N37" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O37" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P37" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q37" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R37" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S37" t="n">
-        <v>728.1289842064343</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T37" t="n">
-        <v>728.1289842064343</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U37" t="n">
-        <v>598.044640063212</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="V37" t="n">
-        <v>343.3601518573251</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="W37" t="n">
-        <v>53.94298182036446</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="X37" t="n">
-        <v>53.94298182036446</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="Y37" t="n">
-        <v>53.94298182036446</v>
+        <v>513.8405610245969</v>
       </c>
     </row>
     <row r="38">
@@ -7150,40 +7150,40 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1268.68094731003</v>
+        <v>1268.680947310029</v>
       </c>
       <c r="C38" t="n">
-        <v>1268.68094731003</v>
+        <v>1268.680947310029</v>
       </c>
       <c r="D38" t="n">
-        <v>1268.68094731003</v>
+        <v>1268.680947310029</v>
       </c>
       <c r="E38" t="n">
-        <v>882.8926947117852</v>
+        <v>882.8926947117851</v>
       </c>
       <c r="F38" t="n">
         <v>471.9067899221776</v>
       </c>
       <c r="G38" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H38" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I38" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J38" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533135</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733126</v>
+        <v>463.961649073312</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224068</v>
       </c>
       <c r="M38" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280442</v>
       </c>
       <c r="N38" t="n">
         <v>1836.345445977174</v>
@@ -7198,19 +7198,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R38" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S38" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T38" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="U38" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="V38" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="W38" t="n">
         <v>2418.885877611043</v>
@@ -7229,34 +7229,34 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C39" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D39" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E39" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F39" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G39" t="n">
         <v>221.4284102424003</v>
       </c>
       <c r="H39" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I39" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J39" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K39" t="n">
-        <v>309.190302261463</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L39" t="n">
         <v>713.8062203571349</v>
@@ -7292,10 +7292,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W39" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X39" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y39" t="n">
         <v>1156.713312237151</v>
@@ -7308,31 +7308,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>500.1394333084169</v>
+        <v>369.7691122461817</v>
       </c>
       <c r="C40" t="n">
-        <v>331.20325038051</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D40" t="n">
-        <v>331.20325038051</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E40" t="n">
-        <v>183.2901567981169</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F40" t="n">
-        <v>183.2901567981169</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G40" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H40" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I40" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J40" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K40" t="n">
         <v>110.2451748866326</v>
@@ -7359,25 +7359,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S40" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T40" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U40" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="V40" t="n">
-        <v>728.1289842064342</v>
+        <v>369.7691122461817</v>
       </c>
       <c r="W40" t="n">
-        <v>728.1289842064342</v>
+        <v>369.7691122461817</v>
       </c>
       <c r="X40" t="n">
-        <v>500.1394333084169</v>
+        <v>369.7691122461817</v>
       </c>
       <c r="Y40" t="n">
-        <v>500.1394333084169</v>
+        <v>369.7691122461817</v>
       </c>
     </row>
     <row r="41">
@@ -7387,37 +7387,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1338.355738489329</v>
+        <v>1794.6828813766</v>
       </c>
       <c r="C41" t="n">
-        <v>1338.355738489329</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D41" t="n">
-        <v>1338.355738489329</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E41" t="n">
-        <v>952.5674858910851</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F41" t="n">
-        <v>952.5674858910851</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G41" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H41" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I41" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J41" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K41" t="n">
         <v>463.9616490733129</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
@@ -7429,34 +7429,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P41" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q41" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R41" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S41" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T41" t="n">
-        <v>2642.120401548716</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U41" t="n">
-        <v>2388.358616186807</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V41" t="n">
-        <v>2057.295728843237</v>
+        <v>2147.451536646714</v>
       </c>
       <c r="W41" t="n">
-        <v>2057.295728843237</v>
+        <v>1794.6828813766</v>
       </c>
       <c r="X41" t="n">
-        <v>1683.829970582157</v>
+        <v>1794.6828813766</v>
       </c>
       <c r="Y41" t="n">
-        <v>1338.355738489329</v>
+        <v>1794.6828813766</v>
       </c>
     </row>
     <row r="42">
@@ -7487,19 +7487,19 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I42" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J42" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K42" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L42" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M42" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N42" t="n">
         <v>1748.695370517453</v>
@@ -7511,10 +7511,10 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q42" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R42" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S42" t="n">
         <v>2488.762748073964</v>
@@ -7545,31 +7545,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>286.5323736931988</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C43" t="n">
-        <v>286.5323736931988</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D43" t="n">
-        <v>286.5323736931988</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E43" t="n">
-        <v>286.5323736931988</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F43" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K43" t="n">
         <v>110.2451748866326</v>
@@ -7578,43 +7578,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M43" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N43" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O43" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P43" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q43" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R43" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S43" t="n">
-        <v>513.840561024597</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T43" t="n">
-        <v>286.5323736931988</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U43" t="n">
-        <v>286.5323736931988</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V43" t="n">
-        <v>286.5323736931988</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W43" t="n">
-        <v>286.5323736931988</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="X43" t="n">
-        <v>286.5323736931988</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="Y43" t="n">
-        <v>286.5323736931988</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="44">
@@ -7639,22 +7639,22 @@
         <v>471.9067899221776</v>
       </c>
       <c r="G44" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H44" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I44" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J44" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K44" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M44" t="n">
         <v>1362.238747280443</v>
@@ -7666,10 +7666,10 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P44" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q44" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R44" t="n">
         <v>2642.120401548716</v>
@@ -7681,7 +7681,7 @@
         <v>2642.120401548716</v>
       </c>
       <c r="U44" t="n">
-        <v>2642.120401548716</v>
+        <v>2418.885877611043</v>
       </c>
       <c r="V44" t="n">
         <v>2418.885877611043</v>
@@ -7703,28 +7703,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C45" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D45" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E45" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F45" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G45" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H45" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I45" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J45" t="n">
         <v>129.2001442204943</v>
@@ -7748,28 +7748,28 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q45" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R45" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S45" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T45" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U45" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V45" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W45" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X45" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y45" t="n">
         <v>1156.713312237151</v>
@@ -7797,49 +7797,49 @@
         <v>222.942782082032</v>
       </c>
       <c r="G46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K46" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L46" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M46" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N46" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O46" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P46" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q46" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R46" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S46" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T46" t="n">
-        <v>728.1289842064343</v>
+        <v>659.0063399253745</v>
       </c>
       <c r="U46" t="n">
-        <v>624.5172177858293</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="V46" t="n">
         <v>369.8327295799424</v>
@@ -8297,13 +8297,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>369.8307175917693</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>303.312501347746</v>
       </c>
       <c r="N6" t="n">
         <v>372.3560009609923</v>
@@ -8312,7 +8312,7 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>139.9817740860215</v>
@@ -8540,13 +8540,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>383.1483227996774</v>
+        <v>382.1386950879872</v>
       </c>
       <c r="N9" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>382.6009056104135</v>
+        <v>383.6105333221034</v>
       </c>
       <c r="P9" t="n">
         <v>133.9744074143302</v>
@@ -8768,10 +8768,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K12" t="n">
-        <v>221.0467526719081</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8780,7 +8780,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>435.9238900028821</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
@@ -9005,10 +9005,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>221.0467526719077</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9026,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9242,10 +9242,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>50.07369958270189</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K18" t="n">
-        <v>221.0467526719079</v>
+        <v>221.0467526719075</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9482,7 +9482,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>145.0294169142014</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9500,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747075</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9716,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9728,7 +9728,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -9737,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9953,10 +9953,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K27" t="n">
-        <v>145.0294169142014</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9974,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10190,10 +10190,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10211,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10427,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10606,7 +10606,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599048</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10664,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10676,7 +10676,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10685,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720731</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10901,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10922,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>166.6588033951781</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11138,10 +11138,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>221.0467526719084</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11150,7 +11150,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11387,7 +11387,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>359.906554245176</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>180.4391552345834</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C2" t="n">
         <v>124.2586028933485</v>
@@ -22591,7 +22591,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
@@ -22615,7 +22615,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>145.2236497783945</v>
+        <v>173.9525530126116</v>
       </c>
     </row>
     <row r="3">
@@ -22628,7 +22628,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -22640,10 +22640,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>14.00696723134696</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
         <v>89.39663285141508</v>
@@ -22688,10 +22688,10 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>10.68069428326055</v>
+        <v>153.5901843066936</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -22792,13 +22792,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>319.5141023699695</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
@@ -22837,16 +22837,16 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W5" t="n">
-        <v>108.226679839754</v>
+        <v>268.906261701593</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -22862,16 +22862,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -22910,28 +22910,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>206.7859637192593</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>175.8836868124217</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -22995,7 +22995,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U7" t="n">
         <v>286.3190293564909</v>
@@ -23004,7 +23004,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -23029,13 +23029,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>319.5141023699695</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>174.288448637476</v>
+        <v>174.2884486374761</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
@@ -23071,16 +23071,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>128.6853625704254</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>10.3313640301775</v>
       </c>
       <c r="V8" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -23117,7 +23117,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>89.39663285141508</v>
@@ -23156,19 +23156,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>175.8836868124218</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>10.68069428326055</v>
+        <v>93.11712955487459</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -23238,10 +23238,10 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V10" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23260,13 +23260,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>308.9584003522844</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>139.6436969778794</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23311,7 +23311,7 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T11" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23320,10 +23320,10 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23393,7 +23393,7 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>8.242295734817162e-13</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -23421,13 +23421,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>59.30821556748127</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>167.3098022590509</v>
@@ -23436,10 +23436,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I13" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J13" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,25 +23460,25 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R13" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S13" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T13" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>242.6855674028634</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23494,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>167.8644987858516</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,28 +23542,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>229.206658065039</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23655,16 +23655,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>132.7129449912583</v>
       </c>
       <c r="E16" t="n">
-        <v>77.93956364789669</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>167.3098022590509</v>
@@ -23676,7 +23676,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J16" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R16" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S16" t="n">
         <v>212.1455389500189</v>
@@ -23709,19 +23709,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23731,10 +23731,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>27.53450764830086</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>159.6828976425807</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23743,16 +23743,16 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I17" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,25 +23779,25 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S17" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T17" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23892,28 +23892,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>111.4067897366014</v>
+        <v>43.7953327297472</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H19" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I19" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J19" t="n">
-        <v>45.19995918853698</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,10 +23934,10 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>29.12274995491428</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R19" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S19" t="n">
         <v>212.1455389500189</v>
@@ -23949,16 +23949,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23968,16 +23968,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>266.6413968852562</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -24028,16 +24028,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>220.4255911831646</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24126,19 +24126,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>71.22505211275147</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>167.3098022590509</v>
@@ -24147,10 +24147,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I22" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J22" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24171,7 +24171,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R22" t="n">
         <v>146.6651919801579</v>
@@ -24195,7 +24195,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>101.4286446528385</v>
       </c>
     </row>
     <row r="23">
@@ -24205,28 +24205,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>344.86143288595</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>373.9948581100514</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24253,28 +24253,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S23" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24375,19 +24375,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>50.78177823929092</v>
       </c>
       <c r="G25" t="n">
-        <v>72.67053247541048</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H25" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I25" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J25" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24408,7 +24408,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R25" t="n">
         <v>146.6651919801579</v>
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24451,10 +24451,10 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>195.5619465486104</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -24490,7 +24490,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S26" t="n">
         <v>174.4157128089715</v>
@@ -24508,7 +24508,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>219.704150626841</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24603,10 +24603,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24621,10 +24621,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I28" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J28" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24645,7 +24645,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R28" t="n">
         <v>146.6651919801579</v>
@@ -24657,19 +24657,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U28" t="n">
-        <v>197.21574088586</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>158.8578157762263</v>
       </c>
     </row>
     <row r="29">
@@ -24679,19 +24679,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -24700,7 +24700,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I29" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24727,7 +24727,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S29" t="n">
         <v>174.4157128089715</v>
@@ -24739,16 +24739,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>97.55206948974623</v>
       </c>
       <c r="W29" t="n">
-        <v>128.238790019117</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24843,13 +24843,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>137.6111783471542</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>50.78177823929093</v>
       </c>
       <c r="G31" t="n">
         <v>167.3098022590509</v>
@@ -24858,10 +24858,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I31" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J31" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24882,31 +24882,31 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R31" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T31" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24916,10 +24916,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -24928,16 +24928,16 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I32" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,19 +24967,19 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>17.4026026020793</v>
+        <v>206.6363670202736</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -25080,13 +25080,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>53.97620323457204</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>167.3098022590509</v>
@@ -25095,10 +25095,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I34" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J34" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25119,7 +25119,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R34" t="n">
         <v>146.6651919801579</v>
@@ -25131,10 +25131,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>16.63754732114123</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -25162,16 +25162,16 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>373.022583943762</v>
+        <v>76.21367150120261</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I35" t="n">
         <v>151.9313162448613</v>
@@ -25207,13 +25207,13 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>37.26422705172934</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25323,19 +25323,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I37" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J37" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25356,25 +25356,25 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R37" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S37" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U37" t="n">
-        <v>157.4983735401876</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25441,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>216.4483203576578</v>
@@ -25453,7 +25453,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>128.238790019117</v>
+        <v>302.654502828089</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25557,22 +25557,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>39.25609903107602</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H40" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I40" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J40" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25593,13 +25593,13 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R40" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S40" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>225.0351054580843</v>
@@ -25608,13 +25608,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>109.506909033197</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25630,25 +25630,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>199.2140186657854</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,28 +25675,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S41" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T41" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>44.21844888415427</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25797,10 +25797,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>82.46735232787617</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H43" t="n">
         <v>156.1708888417951</v>
@@ -25836,25 +25836,25 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>89.80115265030472</v>
       </c>
     </row>
     <row r="44">
@@ -25921,10 +25921,10 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2241675082893</v>
+        <v>30.22198880999329</v>
       </c>
       <c r="V44" t="n">
-        <v>106.7500797718384</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -26046,7 +26046,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J46" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26070,19 +26070,19 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R46" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S46" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T46" t="n">
-        <v>225.0351054580843</v>
+        <v>156.6036876198349</v>
       </c>
       <c r="U46" t="n">
-        <v>183.7062254855788</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>457001.3944062361</v>
+        <v>457001.394406236</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>457001.3944062361</v>
+        <v>457001.394406236</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>457001.394406236</v>
+        <v>457001.3944062361</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>789569.9565778476</v>
+        <v>789569.9565778474</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>789569.9565778476</v>
+        <v>789569.9565778474</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>789569.9565778475</v>
+        <v>789569.9565778474</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>789569.9565778475</v>
+        <v>789569.9565778474</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>789569.9565778475</v>
+        <v>789569.9565778476</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>789569.9565778477</v>
+        <v>789569.9565778475</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>789569.9565778474</v>
+        <v>789569.9565778475</v>
       </c>
     </row>
     <row r="13">
@@ -26322,7 +26322,7 @@
         <v>132928.5380250659</v>
       </c>
       <c r="E2" t="n">
-        <v>231322.0880126062</v>
+        <v>231322.0880126061</v>
       </c>
       <c r="F2" t="n">
         <v>231322.0880126061</v>
@@ -26331,16 +26331,16 @@
         <v>231322.0880126061</v>
       </c>
       <c r="H2" t="n">
+        <v>231322.0880126062</v>
+      </c>
+      <c r="I2" t="n">
         <v>231322.0880126061</v>
       </c>
-      <c r="I2" t="n">
-        <v>231322.0880126062</v>
-      </c>
       <c r="J2" t="n">
-        <v>231322.0880126062</v>
+        <v>231322.0880126061</v>
       </c>
       <c r="K2" t="n">
-        <v>231322.0880126062</v>
+        <v>231322.0880126061</v>
       </c>
       <c r="L2" t="n">
         <v>231322.0880126061</v>
@@ -26349,13 +26349,13 @@
         <v>231322.0880126061</v>
       </c>
       <c r="N2" t="n">
-        <v>231322.0880126062</v>
+        <v>231322.0880126061</v>
       </c>
       <c r="O2" t="n">
-        <v>231322.0880126062</v>
+        <v>231322.0880126061</v>
       </c>
       <c r="P2" t="n">
-        <v>231322.0880126062</v>
+        <v>231322.0880126061</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>432846.1740429962</v>
+        <v>432846.174042996</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910623</v>
+        <v>63059.94259910626</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>107973.3606740582</v>
+        <v>107973.3606740581</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,7 +26426,7 @@
         <v>8547.111069342402</v>
       </c>
       <c r="E4" t="n">
-        <v>9371.018034361483</v>
+        <v>9371.018034361481</v>
       </c>
       <c r="F4" t="n">
         <v>9371.018034361483</v>
@@ -26435,10 +26435,10 @@
         <v>9371.018034361483</v>
       </c>
       <c r="H4" t="n">
-        <v>9371.018034361485</v>
+        <v>9371.018034361483</v>
       </c>
       <c r="I4" t="n">
-        <v>9371.018034361485</v>
+        <v>9371.018034361481</v>
       </c>
       <c r="J4" t="n">
         <v>9371.018034361485</v>
@@ -26450,13 +26450,13 @@
         <v>9371.018034361485</v>
       </c>
       <c r="M4" t="n">
+        <v>9371.018034361483</v>
+      </c>
+      <c r="N4" t="n">
+        <v>9371.018034361481</v>
+      </c>
+      <c r="O4" t="n">
         <v>9371.018034361485</v>
-      </c>
-      <c r="N4" t="n">
-        <v>9371.018034361485</v>
-      </c>
-      <c r="O4" t="n">
-        <v>9371.018034361483</v>
       </c>
       <c r="P4" t="n">
         <v>9371.018034361485</v>
@@ -26475,25 +26475,25 @@
         <v>48281.26876376167</v>
       </c>
       <c r="D5" t="n">
-        <v>48281.26876376167</v>
+        <v>48281.26876376166</v>
       </c>
       <c r="E5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="F5" t="n">
         <v>49231.47806340946</v>
       </c>
       <c r="G5" t="n">
-        <v>49231.47806340948</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="H5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="I5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="J5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="K5" t="n">
         <v>49231.47806340946</v>
@@ -26502,16 +26502,16 @@
         <v>49231.47806340946</v>
       </c>
       <c r="M5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="N5" t="n">
         <v>49231.47806340946</v>
       </c>
       <c r="O5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="P5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-16887.28395962633</v>
+        <v>-5891.074401589934</v>
       </c>
       <c r="C6" t="n">
-        <v>63882.14757192138</v>
+        <v>74878.35712995783</v>
       </c>
       <c r="D6" t="n">
-        <v>63882.14757192141</v>
+        <v>74878.35712995783</v>
       </c>
       <c r="E6" t="n">
-        <v>-266194.9958739802</v>
+        <v>-260733.4235027427</v>
       </c>
       <c r="F6" t="n">
-        <v>166651.178169016</v>
+        <v>172112.7505402532</v>
       </c>
       <c r="G6" t="n">
-        <v>166651.1781690159</v>
+        <v>172112.7505402532</v>
       </c>
       <c r="H6" t="n">
-        <v>166651.1781690159</v>
+        <v>172112.7505402533</v>
       </c>
       <c r="I6" t="n">
-        <v>166651.178169016</v>
+        <v>172112.7505402532</v>
       </c>
       <c r="J6" t="n">
-        <v>103591.2355699098</v>
+        <v>109052.807941147</v>
       </c>
       <c r="K6" t="n">
-        <v>166651.178169016</v>
+        <v>172112.7505402532</v>
       </c>
       <c r="L6" t="n">
-        <v>166651.178169016</v>
+        <v>172112.7505402532</v>
       </c>
       <c r="M6" t="n">
-        <v>58677.81749495778</v>
+        <v>64139.38986619516</v>
       </c>
       <c r="N6" t="n">
-        <v>166651.178169016</v>
+        <v>172112.7505402532</v>
       </c>
       <c r="O6" t="n">
-        <v>166651.178169016</v>
+        <v>172112.7505402532</v>
       </c>
       <c r="P6" t="n">
-        <v>166651.178169016</v>
+        <v>172112.7505402533</v>
       </c>
     </row>
   </sheetData>
@@ -26746,13 +26746,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="F3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="G3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="H3" t="n">
         <v>377.7436642170866</v>
@@ -26779,7 +26779,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="P3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
     </row>
     <row r="4">
@@ -26795,25 +26795,25 @@
         <v>241.0142888776591</v>
       </c>
       <c r="D4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="E4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="F4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="G4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="H4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="I4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>674.2872727545556</v>
@@ -26822,16 +26822,16 @@
         <v>674.2872727545556</v>
       </c>
       <c r="M4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="N4" t="n">
+        <v>674.2872727545555</v>
+      </c>
+      <c r="O4" t="n">
         <v>674.2872727545556</v>
       </c>
-      <c r="O4" t="n">
-        <v>674.2872727545557</v>
-      </c>
       <c r="P4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
     </row>
   </sheetData>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>433.2729838768967</v>
+        <v>433.2729838768965</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.0142888776592</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>433.2729838768968</v>
+        <v>433.2729838768965</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>433.2729838768967</v>
+        <v>433.2729838768965</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31752,46 +31752,46 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H11" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I11" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J11" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K11" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L11" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M11" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N11" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O11" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P11" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q11" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R11" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S11" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T11" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U11" t="n">
         <v>0.1214853995472036</v>
@@ -31831,16 +31831,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H12" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I12" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J12" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K12" t="n">
         <v>131.2017781649102</v>
@@ -31858,22 +31858,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P12" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q12" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R12" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S12" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T12" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,19 +31910,19 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H13" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I13" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J13" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K13" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L13" t="n">
         <v>101.2724571246924</v>
@@ -31934,22 +31934,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O13" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P13" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R13" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S13" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T13" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U13" t="n">
         <v>0.0371551145131561</v>
@@ -31995,19 +31995,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I14" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J14" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K14" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L14" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M14" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N14" t="n">
         <v>270.9617944338304</v>
@@ -32022,13 +32022,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R14" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S14" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T14" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U14" t="n">
         <v>0.1214853995472036</v>
@@ -32068,16 +32068,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H15" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I15" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J15" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K15" t="n">
         <v>131.2017781649102</v>
@@ -32095,22 +32095,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P15" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q15" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R15" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S15" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T15" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,16 +32147,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H16" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I16" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J16" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K16" t="n">
         <v>79.14039391302239</v>
@@ -32171,16 +32171,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O16" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P16" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R16" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S16" t="n">
         <v>11.87105908695336</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H17" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I17" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J17" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K17" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L17" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M17" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N17" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O17" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P17" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q17" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R17" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S17" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T17" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H18" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I18" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J18" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K18" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L18" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M18" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N18" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O18" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P18" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q18" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R18" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S18" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T18" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,19 +32384,19 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H19" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I19" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J19" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K19" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L19" t="n">
         <v>101.2724571246924</v>
@@ -32408,25 +32408,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O19" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P19" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q19" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R19" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S19" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T19" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U19" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,13 +32463,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H20" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I20" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J20" t="n">
         <v>128.8865178727436</v>
@@ -32487,22 +32487,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O20" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P20" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q20" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R20" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S20" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T20" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U20" t="n">
         <v>0.1214853995472036</v>
@@ -32542,16 +32542,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H21" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I21" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J21" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K21" t="n">
         <v>131.2017781649102</v>
@@ -32575,16 +32575,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R21" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S21" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T21" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,19 +32621,19 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H22" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I22" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J22" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K22" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L22" t="n">
         <v>101.2724571246924</v>
@@ -32645,13 +32645,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O22" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P22" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q22" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R22" t="n">
         <v>30.62819939701163</v>
@@ -32660,7 +32660,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T22" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U22" t="n">
         <v>0.0371551145131561</v>
@@ -32700,13 +32700,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H23" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I23" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J23" t="n">
         <v>128.8865178727436</v>
@@ -32724,22 +32724,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O23" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P23" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q23" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R23" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S23" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T23" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U23" t="n">
         <v>0.1214853995472036</v>
@@ -32779,16 +32779,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H24" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I24" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J24" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K24" t="n">
         <v>131.2017781649102</v>
@@ -32812,16 +32812,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R24" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S24" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T24" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U24" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,19 +32858,19 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H25" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I25" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J25" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K25" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L25" t="n">
         <v>101.2724571246924</v>
@@ -32882,13 +32882,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O25" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P25" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q25" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R25" t="n">
         <v>30.62819939701163</v>
@@ -32897,7 +32897,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T25" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U25" t="n">
         <v>0.0371551145131561</v>
@@ -32937,13 +32937,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H26" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I26" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J26" t="n">
         <v>128.8865178727436</v>
@@ -32961,22 +32961,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O26" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P26" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q26" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R26" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S26" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T26" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U26" t="n">
         <v>0.1214853995472036</v>
@@ -33016,16 +33016,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H27" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I27" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J27" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K27" t="n">
         <v>131.2017781649102</v>
@@ -33049,16 +33049,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R27" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S27" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T27" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U27" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,19 +33095,19 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H28" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I28" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J28" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K28" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L28" t="n">
         <v>101.2724571246924</v>
@@ -33119,13 +33119,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O28" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P28" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q28" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R28" t="n">
         <v>30.62819939701163</v>
@@ -33134,7 +33134,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T28" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U28" t="n">
         <v>0.0371551145131561</v>
@@ -33174,13 +33174,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H29" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I29" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J29" t="n">
         <v>128.8865178727436</v>
@@ -33198,22 +33198,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O29" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P29" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q29" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R29" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S29" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T29" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U29" t="n">
         <v>0.1214853995472036</v>
@@ -33253,16 +33253,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H30" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I30" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J30" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K30" t="n">
         <v>131.2017781649102</v>
@@ -33286,16 +33286,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R30" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S30" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T30" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U30" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,19 +33332,19 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H31" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I31" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J31" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K31" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L31" t="n">
         <v>101.2724571246924</v>
@@ -33356,13 +33356,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O31" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P31" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q31" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R31" t="n">
         <v>30.62819939701163</v>
@@ -33371,7 +33371,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T31" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U31" t="n">
         <v>0.0371551145131561</v>
@@ -33411,13 +33411,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H32" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I32" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J32" t="n">
         <v>128.8865178727436</v>
@@ -33435,22 +33435,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O32" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P32" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q32" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R32" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S32" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T32" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U32" t="n">
         <v>0.1214853995472036</v>
@@ -33490,16 +33490,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H33" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I33" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J33" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K33" t="n">
         <v>131.2017781649102</v>
@@ -33523,16 +33523,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R33" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S33" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T33" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U33" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,19 +33569,19 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H34" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I34" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J34" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K34" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L34" t="n">
         <v>101.2724571246924</v>
@@ -33593,13 +33593,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O34" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P34" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q34" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R34" t="n">
         <v>30.62819939701163</v>
@@ -33608,7 +33608,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T34" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U34" t="n">
         <v>0.0371551145131561</v>
@@ -33648,13 +33648,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H35" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I35" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J35" t="n">
         <v>128.8865178727436</v>
@@ -33672,22 +33672,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O35" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P35" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q35" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R35" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S35" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T35" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U35" t="n">
         <v>0.1214853995472036</v>
@@ -33727,16 +33727,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H36" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I36" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J36" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K36" t="n">
         <v>131.2017781649102</v>
@@ -33760,16 +33760,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R36" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S36" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T36" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U36" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,19 +33806,19 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H37" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I37" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J37" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K37" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L37" t="n">
         <v>101.2724571246924</v>
@@ -33830,13 +33830,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O37" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P37" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q37" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R37" t="n">
         <v>30.62819939701163</v>
@@ -33845,7 +33845,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T37" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U37" t="n">
         <v>0.0371551145131561</v>
@@ -33885,13 +33885,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H38" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I38" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J38" t="n">
         <v>128.8865178727436</v>
@@ -33909,22 +33909,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O38" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P38" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q38" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R38" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S38" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T38" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U38" t="n">
         <v>0.1214853995472036</v>
@@ -33964,16 +33964,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H39" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I39" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J39" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K39" t="n">
         <v>131.2017781649102</v>
@@ -33997,16 +33997,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R39" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S39" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T39" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,19 +34043,19 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H40" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I40" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J40" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K40" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L40" t="n">
         <v>101.2724571246924</v>
@@ -34067,13 +34067,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O40" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P40" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q40" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R40" t="n">
         <v>30.62819939701163</v>
@@ -34082,7 +34082,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T40" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U40" t="n">
         <v>0.0371551145131561</v>
@@ -34365,19 +34365,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I44" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J44" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K44" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L44" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M44" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N44" t="n">
         <v>270.9617944338304</v>
@@ -34392,13 +34392,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R44" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S44" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T44" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U44" t="n">
         <v>0.1214853995472036</v>
@@ -34438,16 +34438,16 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H45" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I45" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J45" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K45" t="n">
         <v>131.2017781649102</v>
@@ -34465,22 +34465,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P45" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q45" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R45" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S45" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T45" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,16 +34517,16 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H46" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I46" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J46" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K46" t="n">
         <v>79.14039391302239</v>
@@ -34541,16 +34541,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O46" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P46" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q46" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R46" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S46" t="n">
         <v>11.87105908695336</v>
@@ -35017,13 +35017,13 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>231.276337811895</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>241.0142888776591</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="N6" t="n">
         <v>241.0142888776591</v>
@@ -35032,7 +35032,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35260,13 +35260,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659689</v>
       </c>
       <c r="N9" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="O9" t="n">
-        <v>240.0046611659691</v>
+        <v>241.014288877659</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -35409,25 +35409,25 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K11" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L11" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M11" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N11" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O11" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P11" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q11" t="n">
         <v>153.9975062898689</v>
@@ -35491,7 +35491,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>214.4070918624593</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L12" t="n">
         <v>408.7029475713857</v>
@@ -35500,13 +35500,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N12" t="n">
-        <v>559.3197334338903</v>
+        <v>515.9012490932188</v>
       </c>
       <c r="O12" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P12" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q12" t="n">
         <v>173.8110948137341</v>
@@ -35570,7 +35570,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L13" t="n">
         <v>128.8624823850085</v>
@@ -35585,7 +35585,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P13" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35646,19 +35646,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K14" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L14" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M14" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N14" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O14" t="n">
         <v>406.5635087530452</v>
@@ -35725,10 +35725,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K15" t="n">
-        <v>214.4070918624589</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L15" t="n">
         <v>408.7029475713857</v>
@@ -35737,16 +35737,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N15" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O15" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P15" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q15" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35883,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K17" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L17" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M17" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N17" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O17" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P17" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q17" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35965,22 +35965,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>214.4070918624592</v>
+        <v>214.4070918624587</v>
       </c>
       <c r="L18" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M18" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N18" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O18" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P18" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q18" t="n">
         <v>173.8110948137341</v>
@@ -36044,7 +36044,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L19" t="n">
         <v>128.8624823850085</v>
@@ -36056,10 +36056,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O19" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P19" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36135,10 +36135,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O20" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P20" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q20" t="n">
         <v>153.9975062898689</v>
@@ -36199,10 +36199,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K21" t="n">
-        <v>138.3897561047526</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L21" t="n">
         <v>408.7029475713857</v>
@@ -36214,13 +36214,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O21" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P21" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q21" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36281,7 +36281,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L22" t="n">
         <v>128.8624823850085</v>
@@ -36296,7 +36296,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P22" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36372,10 +36372,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O23" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P23" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q23" t="n">
         <v>153.9975062898689</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>257.8255762031298</v>
@@ -36448,16 +36448,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N24" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O24" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P24" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q24" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36518,7 +36518,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L25" t="n">
         <v>128.8624823850085</v>
@@ -36533,7 +36533,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P25" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36609,10 +36609,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O26" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P26" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q26" t="n">
         <v>153.9975062898689</v>
@@ -36673,10 +36673,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>138.3897561047526</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L27" t="n">
         <v>408.7029475713857</v>
@@ -36688,13 +36688,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O27" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P27" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q27" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36755,7 +36755,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L28" t="n">
         <v>128.8624823850085</v>
@@ -36770,7 +36770,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P28" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36846,10 +36846,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O29" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P29" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q29" t="n">
         <v>153.9975062898689</v>
@@ -36913,7 +36913,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L30" t="n">
         <v>408.7029475713857</v>
@@ -36925,13 +36925,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O30" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P30" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q30" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36992,7 +36992,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L31" t="n">
         <v>128.8624823850085</v>
@@ -37007,7 +37007,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P31" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37083,10 +37083,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O32" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P32" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q32" t="n">
         <v>153.9975062898689</v>
@@ -37162,7 +37162,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O33" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P33" t="n">
         <v>339.6412258735646</v>
@@ -37229,7 +37229,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L34" t="n">
         <v>128.8624823850085</v>
@@ -37244,7 +37244,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P34" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37320,13 +37320,13 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O35" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P35" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q35" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>257.8255762031298</v>
@@ -37396,16 +37396,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N36" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O36" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P36" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q36" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37466,7 +37466,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L37" t="n">
         <v>128.8624823850085</v>
@@ -37481,7 +37481,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P37" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181304</v>
       </c>
       <c r="K38" t="n">
         <v>297.2230414343419</v>
@@ -37557,10 +37557,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O38" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P38" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q38" t="n">
         <v>153.9975062898689</v>
@@ -37636,13 +37636,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O39" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P39" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q39" t="n">
-        <v>130.3926104730631</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37703,7 +37703,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L40" t="n">
         <v>128.8624823850085</v>
@@ -37718,7 +37718,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P40" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37858,10 +37858,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K42" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L42" t="n">
         <v>408.7029475713857</v>
@@ -37870,7 +37870,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N42" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O42" t="n">
         <v>444.5817404245898</v>
@@ -38016,19 +38016,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K44" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L44" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M44" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N44" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O44" t="n">
         <v>406.5635087530452</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K45" t="n">
         <v>257.8255762031298</v>
@@ -38107,13 +38107,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N45" t="n">
-        <v>439.8839133355128</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O45" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P45" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q45" t="n">
         <v>173.8110948137341</v>
